--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject24.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject24.xlsx
@@ -56,74 +56,74 @@
   <dimension ref="A1:BP68"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.16796875" customWidth="true"/>
-    <col min="2" max="2" width="2.16796875" customWidth="true"/>
-    <col min="3" max="3" width="2.16796875" customWidth="true"/>
-    <col min="4" max="4" width="2.16796875" customWidth="true"/>
-    <col min="5" max="5" width="2.16796875" customWidth="true"/>
-    <col min="6" max="6" width="2.16796875" customWidth="true"/>
-    <col min="7" max="7" width="2.16796875" customWidth="true"/>
-    <col min="8" max="8" width="2.16796875" customWidth="true"/>
-    <col min="9" max="9" width="2.16796875" customWidth="true"/>
-    <col min="10" max="10" width="2.16796875" customWidth="true"/>
-    <col min="11" max="11" width="2.16796875" customWidth="true"/>
-    <col min="12" max="12" width="2.16796875" customWidth="true"/>
-    <col min="13" max="13" width="2.16796875" customWidth="true"/>
-    <col min="14" max="14" width="2.16796875" customWidth="true"/>
-    <col min="15" max="15" width="2.16796875" customWidth="true"/>
-    <col min="16" max="16" width="2.16796875" customWidth="true"/>
-    <col min="17" max="17" width="2.16796875" customWidth="true"/>
-    <col min="18" max="18" width="2.16796875" customWidth="true"/>
-    <col min="19" max="19" width="2.16796875" customWidth="true"/>
-    <col min="20" max="20" width="2.16796875" customWidth="true"/>
-    <col min="21" max="21" width="2.16796875" customWidth="true"/>
-    <col min="22" max="22" width="2.16796875" customWidth="true"/>
-    <col min="23" max="23" width="2.16796875" customWidth="true"/>
-    <col min="24" max="24" width="2.16796875" customWidth="true"/>
-    <col min="25" max="25" width="2.16796875" customWidth="true"/>
-    <col min="26" max="26" width="2.16796875" customWidth="true"/>
-    <col min="27" max="27" width="2.16796875" customWidth="true"/>
-    <col min="28" max="28" width="2.16796875" customWidth="true"/>
-    <col min="29" max="29" width="2.16796875" customWidth="true"/>
-    <col min="30" max="30" width="2.16796875" customWidth="true"/>
-    <col min="31" max="31" width="2.16796875" customWidth="true"/>
-    <col min="32" max="32" width="2.16796875" customWidth="true"/>
-    <col min="33" max="33" width="2.16796875" customWidth="true"/>
-    <col min="34" max="34" width="2.16796875" customWidth="true"/>
-    <col min="35" max="35" width="2.16796875" customWidth="true"/>
-    <col min="36" max="36" width="2.16796875" customWidth="true"/>
-    <col min="37" max="37" width="2.16796875" customWidth="true"/>
-    <col min="38" max="38" width="2.16796875" customWidth="true"/>
-    <col min="39" max="39" width="2.16796875" customWidth="true"/>
-    <col min="40" max="40" width="2.16796875" customWidth="true"/>
-    <col min="41" max="41" width="2.16796875" customWidth="true"/>
-    <col min="42" max="42" width="2.16796875" customWidth="true"/>
-    <col min="43" max="43" width="2.16796875" customWidth="true"/>
-    <col min="44" max="44" width="2.16796875" customWidth="true"/>
-    <col min="45" max="45" width="2.16796875" customWidth="true"/>
-    <col min="46" max="46" width="2.16796875" customWidth="true"/>
-    <col min="47" max="47" width="2.16796875" customWidth="true"/>
-    <col min="48" max="48" width="2.16796875" customWidth="true"/>
-    <col min="49" max="49" width="2.16796875" customWidth="true"/>
-    <col min="50" max="50" width="2.16796875" customWidth="true"/>
-    <col min="51" max="51" width="2.16796875" customWidth="true"/>
-    <col min="52" max="52" width="2.16796875" customWidth="true"/>
-    <col min="53" max="53" width="2.16796875" customWidth="true"/>
-    <col min="54" max="54" width="2.16796875" customWidth="true"/>
-    <col min="55" max="55" width="2.16796875" customWidth="true"/>
-    <col min="56" max="56" width="2.16796875" customWidth="true"/>
-    <col min="57" max="57" width="2.16796875" customWidth="true"/>
-    <col min="58" max="58" width="2.16796875" customWidth="true"/>
-    <col min="59" max="59" width="2.16796875" customWidth="true"/>
-    <col min="60" max="60" width="2.16796875" customWidth="true"/>
-    <col min="61" max="61" width="2.16796875" customWidth="true"/>
-    <col min="62" max="62" width="2.16796875" customWidth="true"/>
-    <col min="63" max="63" width="2.16796875" customWidth="true"/>
-    <col min="64" max="64" width="2.16796875" customWidth="true"/>
-    <col min="65" max="65" width="2.16796875" customWidth="true"/>
-    <col min="66" max="66" width="2.16796875" customWidth="true"/>
-    <col min="67" max="67" width="2.16796875" customWidth="true"/>
-    <col min="68" max="68" width="2.16796875" customWidth="true"/>
+    <col min="1" max="1" width="12.7109375" customWidth="true"/>
+    <col min="2" max="2" width="12.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="4" max="4" width="12.7109375" customWidth="true"/>
+    <col min="5" max="5" width="12.7109375" customWidth="true"/>
+    <col min="6" max="6" width="12.7109375" customWidth="true"/>
+    <col min="7" max="7" width="12.7109375" customWidth="true"/>
+    <col min="8" max="8" width="12.7109375" customWidth="true"/>
+    <col min="9" max="9" width="12.7109375" customWidth="true"/>
+    <col min="10" max="10" width="12.7109375" customWidth="true"/>
+    <col min="11" max="11" width="12.7109375" customWidth="true"/>
+    <col min="12" max="12" width="12.7109375" customWidth="true"/>
+    <col min="13" max="13" width="12.7109375" customWidth="true"/>
+    <col min="14" max="14" width="12.7109375" customWidth="true"/>
+    <col min="15" max="15" width="12.7109375" customWidth="true"/>
+    <col min="16" max="16" width="12.7109375" customWidth="true"/>
+    <col min="17" max="17" width="12.7109375" customWidth="true"/>
+    <col min="18" max="18" width="12.7109375" customWidth="true"/>
+    <col min="19" max="19" width="12.7109375" customWidth="true"/>
+    <col min="20" max="20" width="12.7109375" customWidth="true"/>
+    <col min="21" max="21" width="12.7109375" customWidth="true"/>
+    <col min="22" max="22" width="12.7109375" customWidth="true"/>
+    <col min="23" max="23" width="12.7109375" customWidth="true"/>
+    <col min="24" max="24" width="12.7109375" customWidth="true"/>
+    <col min="25" max="25" width="12.7109375" customWidth="true"/>
+    <col min="26" max="26" width="12.7109375" customWidth="true"/>
+    <col min="27" max="27" width="12.7109375" customWidth="true"/>
+    <col min="28" max="28" width="12.7109375" customWidth="true"/>
+    <col min="29" max="29" width="12.7109375" customWidth="true"/>
+    <col min="30" max="30" width="12.7109375" customWidth="true"/>
+    <col min="31" max="31" width="12.7109375" customWidth="true"/>
+    <col min="32" max="32" width="12.7109375" customWidth="true"/>
+    <col min="33" max="33" width="12.7109375" customWidth="true"/>
+    <col min="34" max="34" width="12.7109375" customWidth="true"/>
+    <col min="35" max="35" width="12.7109375" customWidth="true"/>
+    <col min="36" max="36" width="12.7109375" customWidth="true"/>
+    <col min="37" max="37" width="12.7109375" customWidth="true"/>
+    <col min="38" max="38" width="12.7109375" customWidth="true"/>
+    <col min="39" max="39" width="12.7109375" customWidth="true"/>
+    <col min="40" max="40" width="12.7109375" customWidth="true"/>
+    <col min="41" max="41" width="12.7109375" customWidth="true"/>
+    <col min="42" max="42" width="12.7109375" customWidth="true"/>
+    <col min="43" max="43" width="12.7109375" customWidth="true"/>
+    <col min="44" max="44" width="12.7109375" customWidth="true"/>
+    <col min="45" max="45" width="12.7109375" customWidth="true"/>
+    <col min="46" max="46" width="12.7109375" customWidth="true"/>
+    <col min="47" max="47" width="12.7109375" customWidth="true"/>
+    <col min="48" max="48" width="12.7109375" customWidth="true"/>
+    <col min="49" max="49" width="12.7109375" customWidth="true"/>
+    <col min="50" max="50" width="12.7109375" customWidth="true"/>
+    <col min="51" max="51" width="12.7109375" customWidth="true"/>
+    <col min="52" max="52" width="12.7109375" customWidth="true"/>
+    <col min="53" max="53" width="12.7109375" customWidth="true"/>
+    <col min="54" max="54" width="12.7109375" customWidth="true"/>
+    <col min="55" max="55" width="12.7109375" customWidth="true"/>
+    <col min="56" max="56" width="12.7109375" customWidth="true"/>
+    <col min="57" max="57" width="12.7109375" customWidth="true"/>
+    <col min="58" max="58" width="12.7109375" customWidth="true"/>
+    <col min="59" max="59" width="12.7109375" customWidth="true"/>
+    <col min="60" max="60" width="12.7109375" customWidth="true"/>
+    <col min="61" max="61" width="12.7109375" customWidth="true"/>
+    <col min="62" max="62" width="12.7109375" customWidth="true"/>
+    <col min="63" max="63" width="12.7109375" customWidth="true"/>
+    <col min="64" max="64" width="12.7109375" customWidth="true"/>
+    <col min="65" max="65" width="12.7109375" customWidth="true"/>
+    <col min="66" max="66" width="12.7109375" customWidth="true"/>
+    <col min="67" max="67" width="12.7109375" customWidth="true"/>
+    <col min="68" max="68" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -131,10 +131,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1" s="0">
         <v>0</v>
@@ -146,7 +146,7 @@
         <v>0</v>
       </c>
       <c r="G1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1" s="0">
         <v>0</v>
@@ -182,10 +182,10 @@
         <v>0</v>
       </c>
       <c r="S1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T1" s="0">
-        <v>0</v>
+        <v>0.58605103990277352</v>
       </c>
       <c r="U1" s="0">
         <v>0</v>
@@ -224,7 +224,7 @@
         <v>0</v>
       </c>
       <c r="AG1" s="0">
-        <v>0</v>
+        <v>0.75618008426653804</v>
       </c>
       <c r="AH1" s="0">
         <v>0</v>
@@ -233,7 +233,7 @@
         <v>0</v>
       </c>
       <c r="AJ1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK1" s="0">
         <v>0</v>
@@ -245,7 +245,7 @@
         <v>0</v>
       </c>
       <c r="AN1" s="0">
-        <v>0</v>
+        <v>0.92717909018712064</v>
       </c>
       <c r="AO1" s="0">
         <v>0</v>
@@ -326,7 +326,7 @@
         <v>0</v>
       </c>
       <c r="BO1" s="0">
-        <v>0</v>
+        <v>0.84781125519940559</v>
       </c>
       <c r="BP1" s="0">
         <v>0</v>
@@ -334,7 +334,7 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="0">
         <v>0</v>
@@ -358,7 +358,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="0">
-        <v>0</v>
+        <v>0.72883842832974377</v>
       </c>
       <c r="J2" s="0">
         <v>0</v>
@@ -415,7 +415,7 @@
         <v>0</v>
       </c>
       <c r="AB2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC2" s="0">
         <v>0</v>
@@ -436,7 +436,7 @@
         <v>0</v>
       </c>
       <c r="AI2" s="0">
-        <v>0</v>
+        <v>0.89781908666433641</v>
       </c>
       <c r="AJ2" s="0">
         <v>0</v>
@@ -514,19 +514,19 @@
         <v>0</v>
       </c>
       <c r="BI2" s="0">
-        <v>0</v>
+        <v>0.52194575170941859</v>
       </c>
       <c r="BJ2" s="0">
         <v>0</v>
       </c>
       <c r="BK2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL2" s="0">
         <v>0</v>
       </c>
       <c r="BM2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="0">
         <v>0</v>
@@ -540,7 +540,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" s="0">
         <v>0</v>
@@ -585,7 +585,7 @@
         <v>0</v>
       </c>
       <c r="P3" s="0">
-        <v>0</v>
+        <v>0.80605593920112573</v>
       </c>
       <c r="Q3" s="0">
         <v>0</v>
@@ -630,16 +630,16 @@
         <v>0</v>
       </c>
       <c r="AE3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG3" s="0">
         <v>0</v>
       </c>
       <c r="AH3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI3" s="0">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="AK3" s="0">
-        <v>0</v>
+        <v>0.89567783912592769</v>
       </c>
       <c r="AL3" s="0">
         <v>0</v>
@@ -666,7 +666,7 @@
         <v>0</v>
       </c>
       <c r="AQ3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR3" s="0">
         <v>0</v>
@@ -678,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="AU3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV3" s="0">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="BE3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF3" s="0">
         <v>0</v>
@@ -735,7 +735,7 @@
         <v>0</v>
       </c>
       <c r="BN3" s="0">
-        <v>0</v>
+        <v>0.65531179903133607</v>
       </c>
       <c r="BO3" s="0">
         <v>0</v>
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="0">
-        <v>0</v>
+        <v>0.90449718327628659</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
@@ -788,16 +788,16 @@
         <v>0</v>
       </c>
       <c r="O4" s="0">
-        <v>0</v>
+        <v>0.80483294438349728</v>
       </c>
       <c r="P4" s="0">
         <v>0</v>
       </c>
       <c r="Q4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4" s="0">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="X4" s="0">
-        <v>0</v>
+        <v>0.97973919275207499</v>
       </c>
       <c r="Y4" s="0">
         <v>0</v>
@@ -854,7 +854,7 @@
         <v>0</v>
       </c>
       <c r="AK4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL4" s="0">
         <v>0</v>
@@ -899,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="AZ4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA4" s="0">
         <v>0</v>
@@ -920,7 +920,7 @@
         <v>0</v>
       </c>
       <c r="BG4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH4" s="0">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="BP4" s="0">
-        <v>0</v>
+        <v>0.8935977463630671</v>
       </c>
     </row>
     <row r="5">
@@ -967,7 +967,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="0">
-        <v>0</v>
+        <v>0.81575561939861851</v>
       </c>
       <c r="G5" s="0">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="X5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y5" s="0">
         <v>0</v>
@@ -1069,13 +1069,13 @@
         <v>0</v>
       </c>
       <c r="AN5" s="0">
-        <v>0</v>
+        <v>0.52547808187261613</v>
       </c>
       <c r="AO5" s="0">
         <v>0</v>
       </c>
       <c r="AP5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ5" s="0">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="BG5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH5" s="0">
         <v>0</v>
@@ -1138,10 +1138,10 @@
         <v>0</v>
       </c>
       <c r="BK5" s="0">
-        <v>0</v>
+        <v>0.52978246223433123</v>
       </c>
       <c r="BL5" s="0">
-        <v>0</v>
+        <v>0.60936144622214172</v>
       </c>
       <c r="BM5" s="0">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="BP5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1167,10 +1167,10 @@
         <v>0</v>
       </c>
       <c r="D6" s="0">
-        <v>0</v>
+        <v>0.95039007782806939</v>
       </c>
       <c r="E6" s="0">
-        <v>0</v>
+        <v>0.55173756338515911</v>
       </c>
       <c r="F6" s="0">
         <v>0</v>
@@ -1185,13 +1185,13 @@
         <v>0</v>
       </c>
       <c r="J6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" s="0">
         <v>0</v>
       </c>
       <c r="L6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" s="0">
         <v>0</v>
@@ -1218,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="U6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V6" s="0">
         <v>0</v>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="BE6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF6" s="0">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="BL6" s="0">
-        <v>0</v>
+        <v>0.90667984740426766</v>
       </c>
       <c r="BM6" s="0">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="BO6" s="0">
-        <v>0</v>
+        <v>0.92165483125620118</v>
       </c>
       <c r="BP6" s="0">
         <v>0</v>
@@ -1364,7 +1364,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7" s="0">
         <v>0</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="O7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P7" s="0">
         <v>0</v>
@@ -1421,7 +1421,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U7" s="0">
         <v>0</v>
@@ -1472,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="AK7" s="0">
-        <v>0</v>
+        <v>0.96768511323831108</v>
       </c>
       <c r="AL7" s="0">
         <v>0</v>
@@ -1487,7 +1487,7 @@
         <v>0</v>
       </c>
       <c r="AP7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ7" s="0">
         <v>0</v>
@@ -1550,13 +1550,13 @@
         <v>0</v>
       </c>
       <c r="BK7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL7" s="0">
         <v>0</v>
       </c>
       <c r="BM7" s="0">
-        <v>0</v>
+        <v>0.74959468578898558</v>
       </c>
       <c r="BN7" s="0">
         <v>0</v>
@@ -1600,7 +1600,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" s="0">
         <v>0</v>
@@ -1618,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="Q8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R8" s="0">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="AF8" s="0">
-        <v>0</v>
+        <v>0.84812734699671055</v>
       </c>
       <c r="AG8" s="0">
         <v>0</v>
@@ -1717,16 +1717,16 @@
         <v>0</v>
       </c>
       <c r="AX8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="0">
         <v>0</v>
       </c>
       <c r="AZ8" s="0">
-        <v>0</v>
+        <v>0.76839543797397813</v>
       </c>
       <c r="BA8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB8" s="0">
         <v>0</v>
@@ -1750,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="BI8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ8" s="0">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         <v>0</v>
       </c>
       <c r="BM8" s="0">
-        <v>0</v>
+        <v>0.72153107322635468</v>
       </c>
       <c r="BN8" s="0">
         <v>0</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="B9" s="0">
-        <v>0</v>
+        <v>0.71189640907797691</v>
       </c>
       <c r="C9" s="0">
         <v>0</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="0">
-        <v>0</v>
+        <v>0.84889194738151508</v>
       </c>
       <c r="L9" s="0">
         <v>0</v>
@@ -1830,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="S9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T9" s="0">
         <v>0</v>
@@ -1851,7 +1851,7 @@
         <v>0</v>
       </c>
       <c r="Z9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA9" s="0">
         <v>0</v>
@@ -1860,7 +1860,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="0">
-        <v>0</v>
+        <v>0.98424540265866645</v>
       </c>
       <c r="AD9" s="0">
         <v>0</v>
@@ -1878,13 +1878,13 @@
         <v>0</v>
       </c>
       <c r="AI9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="0">
         <v>0</v>
       </c>
       <c r="AK9" s="0">
-        <v>0</v>
+        <v>0.92001805703117934</v>
       </c>
       <c r="AL9" s="0">
         <v>0</v>
@@ -1917,7 +1917,7 @@
         <v>0</v>
       </c>
       <c r="AV9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW9" s="0">
         <v>0</v>
@@ -1932,7 +1932,7 @@
         <v>0</v>
       </c>
       <c r="BA9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB9" s="0">
         <v>0</v>
@@ -1997,7 +1997,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" s="0">
         <v>0</v>
@@ -2012,7 +2012,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="0">
-        <v>1</v>
+        <v>0.57000445265042532</v>
       </c>
       <c r="L10" s="0">
         <v>0</v>
@@ -2054,7 +2054,7 @@
         <v>0</v>
       </c>
       <c r="Y10" s="0">
-        <v>1</v>
+        <v>0.52513255016118499</v>
       </c>
       <c r="Z10" s="0">
         <v>0</v>
@@ -2108,10 +2108,10 @@
         <v>0</v>
       </c>
       <c r="AQ10" s="0">
-        <v>0</v>
+        <v>0.6401599341766071</v>
       </c>
       <c r="AR10" s="0">
-        <v>1</v>
+        <v>0.7760501797885353</v>
       </c>
       <c r="AS10" s="0">
         <v>0</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="AW10" s="0">
-        <v>1</v>
+        <v>0.64241858132690099</v>
       </c>
       <c r="AX10" s="0">
         <v>0</v>
@@ -2209,22 +2209,22 @@
         <v>0</v>
       </c>
       <c r="H11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" s="0">
-        <v>0</v>
+        <v>0.95663199835789992</v>
       </c>
       <c r="J11" s="0">
-        <v>1</v>
+        <v>0.74816072477451034</v>
       </c>
       <c r="K11" s="0">
         <v>0</v>
       </c>
       <c r="L11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11" s="0">
         <v>0</v>
@@ -2233,10 +2233,10 @@
         <v>0</v>
       </c>
       <c r="P11" s="0">
-        <v>0</v>
+        <v>0.74398517078205473</v>
       </c>
       <c r="Q11" s="0">
-        <v>0</v>
+        <v>0.70086050576791736</v>
       </c>
       <c r="R11" s="0">
         <v>0</v>
@@ -2353,7 +2353,7 @@
         <v>0</v>
       </c>
       <c r="BD11" s="0">
-        <v>0</v>
+        <v>0.85174748763901875</v>
       </c>
       <c r="BE11" s="0">
         <v>0</v>
@@ -2409,7 +2409,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" s="0">
         <v>0</v>
@@ -2424,7 +2424,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" s="0">
         <v>0</v>
@@ -2433,7 +2433,7 @@
         <v>0</v>
       </c>
       <c r="N12" s="0">
-        <v>0</v>
+        <v>0.83991318660095038</v>
       </c>
       <c r="O12" s="0">
         <v>0</v>
@@ -2463,7 +2463,7 @@
         <v>0</v>
       </c>
       <c r="X12" s="0">
-        <v>0</v>
+        <v>0.60091622979311698</v>
       </c>
       <c r="Y12" s="0">
         <v>0</v>
@@ -2478,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD12" s="0">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="AT12" s="0">
-        <v>0</v>
+        <v>0.86236831054421681</v>
       </c>
       <c r="AU12" s="0">
         <v>0</v>
@@ -2630,7 +2630,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" s="0">
         <v>0</v>
@@ -2639,7 +2639,7 @@
         <v>0</v>
       </c>
       <c r="N13" s="0">
-        <v>1</v>
+        <v>0.73626921116363264</v>
       </c>
       <c r="O13" s="0">
         <v>0</v>
@@ -2675,13 +2675,13 @@
         <v>0</v>
       </c>
       <c r="Z13" s="0">
-        <v>0</v>
+        <v>0.82970571058890963</v>
       </c>
       <c r="AA13" s="0">
         <v>0</v>
       </c>
       <c r="AB13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC13" s="0">
         <v>0</v>
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="AQ13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR13" s="0">
         <v>0</v>
@@ -2789,7 +2789,7 @@
         <v>0</v>
       </c>
       <c r="BL13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM13" s="0">
         <v>0</v>
@@ -2839,10 +2839,10 @@
         <v>0</v>
       </c>
       <c r="L14" s="0">
-        <v>0</v>
+        <v>0.88333120275532984</v>
       </c>
       <c r="M14" s="0">
-        <v>1</v>
+        <v>0.94404371163443268</v>
       </c>
       <c r="N14" s="0">
         <v>0</v>
@@ -2869,7 +2869,7 @@
         <v>0</v>
       </c>
       <c r="V14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W14" s="0">
         <v>0</v>
@@ -2890,7 +2890,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="0">
-        <v>0</v>
+        <v>0.84480438167258887</v>
       </c>
       <c r="AD14" s="0">
         <v>0</v>
@@ -2938,7 +2938,7 @@
         <v>0</v>
       </c>
       <c r="AS14" s="0">
-        <v>0</v>
+        <v>0.77110789984669581</v>
       </c>
       <c r="AT14" s="0">
         <v>0</v>
@@ -2956,7 +2956,7 @@
         <v>0</v>
       </c>
       <c r="AY14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ14" s="0">
         <v>0</v>
@@ -2977,10 +2977,10 @@
         <v>0</v>
       </c>
       <c r="BF14" s="0">
-        <v>0</v>
+        <v>0.70540086010488956</v>
       </c>
       <c r="BG14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH14" s="0">
         <v>0</v>
@@ -3021,7 +3021,7 @@
         <v>0</v>
       </c>
       <c r="D15" s="0">
-        <v>0</v>
+        <v>0.92890721881526717</v>
       </c>
       <c r="E15" s="0">
         <v>0</v>
@@ -3030,7 +3030,7 @@
         <v>0</v>
       </c>
       <c r="G15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" s="0">
         <v>0</v>
@@ -3057,7 +3057,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="0">
-        <v>0</v>
+        <v>0.62307939286471226</v>
       </c>
       <c r="Q15" s="0">
         <v>0</v>
@@ -3075,7 +3075,7 @@
         <v>0</v>
       </c>
       <c r="V15" s="0">
-        <v>0</v>
+        <v>0.60794571985909829</v>
       </c>
       <c r="W15" s="0">
         <v>0</v>
@@ -3177,7 +3177,7 @@
         <v>0</v>
       </c>
       <c r="BD15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE15" s="0">
         <v>0</v>
@@ -3198,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="BK15" s="0">
-        <v>0</v>
+        <v>0.80519427170120861</v>
       </c>
       <c r="BL15" s="0">
         <v>0</v>
@@ -3224,7 +3224,7 @@
         <v>0</v>
       </c>
       <c r="C16" s="0">
-        <v>0</v>
+        <v>0.54665334878498273</v>
       </c>
       <c r="D16" s="0">
         <v>0</v>
@@ -3248,7 +3248,7 @@
         <v>0</v>
       </c>
       <c r="K16" s="0">
-        <v>0</v>
+        <v>0.90414801123897792</v>
       </c>
       <c r="L16" s="0">
         <v>0</v>
@@ -3260,16 +3260,16 @@
         <v>0</v>
       </c>
       <c r="O16" s="0">
-        <v>0</v>
+        <v>0.55896334110002366</v>
       </c>
       <c r="P16" s="0">
         <v>0</v>
       </c>
       <c r="Q16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S16" s="0">
         <v>0</v>
@@ -3317,7 +3317,7 @@
         <v>0</v>
       </c>
       <c r="AH16" s="0">
-        <v>0</v>
+        <v>0.51135488536399953</v>
       </c>
       <c r="AI16" s="0">
         <v>0</v>
@@ -3344,7 +3344,7 @@
         <v>0</v>
       </c>
       <c r="AQ16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR16" s="0">
         <v>0</v>
@@ -3359,7 +3359,7 @@
         <v>0</v>
       </c>
       <c r="AV16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW16" s="0">
         <v>0</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="BE16" s="0">
-        <v>0</v>
+        <v>0.55158056976954861</v>
       </c>
       <c r="BF16" s="0">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="BH16" s="0">
-        <v>0</v>
+        <v>0.90471576688424526</v>
       </c>
       <c r="BI16" s="0">
         <v>0</v>
@@ -3419,7 +3419,7 @@
         <v>0</v>
       </c>
       <c r="BP16" s="0">
-        <v>1</v>
+        <v>0.81025017628400375</v>
       </c>
     </row>
     <row r="17">
@@ -3433,7 +3433,7 @@
         <v>0</v>
       </c>
       <c r="D17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" s="0">
         <v>0</v>
@@ -3445,7 +3445,7 @@
         <v>0</v>
       </c>
       <c r="H17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" s="0">
         <v>0</v>
@@ -3454,7 +3454,7 @@
         <v>0</v>
       </c>
       <c r="K17" s="0">
-        <v>0</v>
+        <v>0.75019741595623879</v>
       </c>
       <c r="L17" s="0">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="0">
         <v>0</v>
@@ -3478,7 +3478,7 @@
         <v>0</v>
       </c>
       <c r="S17" s="0">
-        <v>0</v>
+        <v>0.90730687479497751</v>
       </c>
       <c r="T17" s="0">
         <v>0</v>
@@ -3490,7 +3490,7 @@
         <v>0</v>
       </c>
       <c r="W17" s="0">
-        <v>0</v>
+        <v>0.61499734306208587</v>
       </c>
       <c r="X17" s="0">
         <v>0</v>
@@ -3601,7 +3601,7 @@
         <v>0</v>
       </c>
       <c r="BH17" s="0">
-        <v>0</v>
+        <v>0.85873877032464241</v>
       </c>
       <c r="BI17" s="0">
         <v>0</v>
@@ -3639,7 +3639,7 @@
         <v>0</v>
       </c>
       <c r="D18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" s="0">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="0">
         <v>0</v>
@@ -3687,7 +3687,7 @@
         <v>0</v>
       </c>
       <c r="T18" s="0">
-        <v>0</v>
+        <v>0.51627494650833139</v>
       </c>
       <c r="U18" s="0">
         <v>0</v>
@@ -3702,7 +3702,7 @@
         <v>0</v>
       </c>
       <c r="Y18" s="0">
-        <v>1</v>
+        <v>0.83447362548418713</v>
       </c>
       <c r="Z18" s="0">
         <v>0</v>
@@ -3729,13 +3729,13 @@
         <v>0</v>
       </c>
       <c r="AH18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI18" s="0">
         <v>0</v>
       </c>
       <c r="AJ18" s="0">
-        <v>0</v>
+        <v>0.85432714671085608</v>
       </c>
       <c r="AK18" s="0">
         <v>0</v>
@@ -3810,7 +3810,7 @@
         <v>0</v>
       </c>
       <c r="BI18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ18" s="0">
         <v>0</v>
@@ -3836,7 +3836,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B19" s="0">
         <v>0</v>
@@ -3860,7 +3860,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" s="0">
         <v>0</v>
@@ -3884,7 +3884,7 @@
         <v>0</v>
       </c>
       <c r="Q19" s="0">
-        <v>0</v>
+        <v>0.79107854825816393</v>
       </c>
       <c r="R19" s="0">
         <v>0</v>
@@ -3893,10 +3893,10 @@
         <v>0</v>
       </c>
       <c r="T19" s="0">
-        <v>0</v>
+        <v>0.64488496254622907</v>
       </c>
       <c r="U19" s="0">
-        <v>1</v>
+        <v>0.78410111340337252</v>
       </c>
       <c r="V19" s="0">
         <v>0</v>
@@ -3914,7 +3914,7 @@
         <v>0</v>
       </c>
       <c r="AA19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB19" s="0">
         <v>0</v>
@@ -3965,7 +3965,7 @@
         <v>0</v>
       </c>
       <c r="AR19" s="0">
-        <v>0</v>
+        <v>0.58326356072843011</v>
       </c>
       <c r="AS19" s="0">
         <v>0</v>
@@ -3977,7 +3977,7 @@
         <v>0</v>
       </c>
       <c r="AV19" s="0">
-        <v>0</v>
+        <v>0.64158059384311983</v>
       </c>
       <c r="AW19" s="0">
         <v>0</v>
@@ -4042,7 +4042,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0</v>
+        <v>0.99869362007748852</v>
       </c>
       <c r="B20" s="0">
         <v>0</v>
@@ -4060,7 +4060,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" s="0">
         <v>0</v>
@@ -4093,10 +4093,10 @@
         <v>0</v>
       </c>
       <c r="R20" s="0">
-        <v>0</v>
+        <v>0.61229010834648001</v>
       </c>
       <c r="S20" s="0">
-        <v>0</v>
+        <v>0.99512131896038403</v>
       </c>
       <c r="T20" s="0">
         <v>0</v>
@@ -4147,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="AJ20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK20" s="0">
         <v>0</v>
@@ -4195,13 +4195,13 @@
         <v>0</v>
       </c>
       <c r="AZ20" s="0">
-        <v>0</v>
+        <v>0.59918107381604513</v>
       </c>
       <c r="BA20" s="0">
         <v>0</v>
       </c>
       <c r="BB20" s="0">
-        <v>1</v>
+        <v>0.87943084953515016</v>
       </c>
       <c r="BC20" s="0">
         <v>0</v>
@@ -4263,7 +4263,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" s="0">
         <v>0</v>
@@ -4302,7 +4302,7 @@
         <v>0</v>
       </c>
       <c r="S21" s="0">
-        <v>1</v>
+        <v>0.81854935398981898</v>
       </c>
       <c r="T21" s="0">
         <v>0</v>
@@ -4329,7 +4329,7 @@
         <v>0</v>
       </c>
       <c r="AB21" s="0">
-        <v>0</v>
+        <v>0.97427214320618905</v>
       </c>
       <c r="AC21" s="0">
         <v>0</v>
@@ -4353,7 +4353,7 @@
         <v>0</v>
       </c>
       <c r="AJ21" s="0">
-        <v>0</v>
+        <v>0.60272096444169321</v>
       </c>
       <c r="AK21" s="0">
         <v>0</v>
@@ -4443,7 +4443,7 @@
         <v>0</v>
       </c>
       <c r="BN21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO21" s="0">
         <v>0</v>
@@ -4493,10 +4493,10 @@
         <v>0</v>
       </c>
       <c r="N22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O22" s="0">
-        <v>0</v>
+        <v>0.55627659110138183</v>
       </c>
       <c r="P22" s="0">
         <v>0</v>
@@ -4520,7 +4520,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="0">
-        <v>1</v>
+        <v>0.79330454251787308</v>
       </c>
       <c r="X22" s="0">
         <v>0</v>
@@ -4532,7 +4532,7 @@
         <v>0</v>
       </c>
       <c r="AA22" s="0">
-        <v>0</v>
+        <v>0.71217436369883014</v>
       </c>
       <c r="AB22" s="0">
         <v>0</v>
@@ -4556,7 +4556,7 @@
         <v>0</v>
       </c>
       <c r="AI22" s="0">
-        <v>1</v>
+        <v>0.84979472535768497</v>
       </c>
       <c r="AJ22" s="0">
         <v>0</v>
@@ -4592,7 +4592,7 @@
         <v>0</v>
       </c>
       <c r="AU22" s="0">
-        <v>0</v>
+        <v>0.72840251991051708</v>
       </c>
       <c r="AV22" s="0">
         <v>0</v>
@@ -4601,7 +4601,7 @@
         <v>0</v>
       </c>
       <c r="AX22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="0">
         <v>0</v>
@@ -4708,7 +4708,7 @@
         <v>0</v>
       </c>
       <c r="Q23" s="0">
-        <v>0</v>
+        <v>0.87141241412105952</v>
       </c>
       <c r="R23" s="0">
         <v>0</v>
@@ -4723,7 +4723,7 @@
         <v>0</v>
       </c>
       <c r="V23" s="0">
-        <v>1</v>
+        <v>0.61002165593631186</v>
       </c>
       <c r="W23" s="0">
         <v>0</v>
@@ -4750,7 +4750,7 @@
         <v>0</v>
       </c>
       <c r="AE23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF23" s="0">
         <v>0</v>
@@ -4771,7 +4771,7 @@
         <v>0</v>
       </c>
       <c r="AL23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM23" s="0">
         <v>0</v>
@@ -4810,7 +4810,7 @@
         <v>0</v>
       </c>
       <c r="AY23" s="0">
-        <v>0</v>
+        <v>0.85772698934845781</v>
       </c>
       <c r="AZ23" s="0">
         <v>0</v>
@@ -4831,7 +4831,7 @@
         <v>0</v>
       </c>
       <c r="BF23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG23" s="0">
         <v>0</v>
@@ -4858,10 +4858,10 @@
         <v>0</v>
       </c>
       <c r="BO23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP23" s="0">
-        <v>0</v>
+        <v>0.89721237633231499</v>
       </c>
     </row>
     <row r="24">
@@ -4875,10 +4875,10 @@
         <v>0</v>
       </c>
       <c r="D24" s="0">
-        <v>0</v>
+        <v>0.7755618881997226</v>
       </c>
       <c r="E24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" s="0">
         <v>0</v>
@@ -4899,7 +4899,7 @@
         <v>0</v>
       </c>
       <c r="L24" s="0">
-        <v>0</v>
+        <v>0.81472839143972553</v>
       </c>
       <c r="M24" s="0">
         <v>0</v>
@@ -4941,7 +4941,7 @@
         <v>0</v>
       </c>
       <c r="Z24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA24" s="0">
         <v>0</v>
@@ -4980,7 +4980,7 @@
         <v>0</v>
       </c>
       <c r="AM24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN24" s="0">
         <v>0</v>
@@ -5007,7 +5007,7 @@
         <v>0</v>
       </c>
       <c r="AV24" s="0">
-        <v>0</v>
+        <v>0.93088227900451281</v>
       </c>
       <c r="AW24" s="0">
         <v>0</v>
@@ -5034,13 +5034,13 @@
         <v>0</v>
       </c>
       <c r="BE24" s="0">
-        <v>0</v>
+        <v>0.75041204753690161</v>
       </c>
       <c r="BF24" s="0">
         <v>0</v>
       </c>
       <c r="BG24" s="0">
-        <v>0</v>
+        <v>0.57983697199655215</v>
       </c>
       <c r="BH24" s="0">
         <v>0</v>
@@ -5099,7 +5099,7 @@
         <v>0</v>
       </c>
       <c r="J25" s="0">
-        <v>1</v>
+        <v>0.70216878518288683</v>
       </c>
       <c r="K25" s="0">
         <v>0</v>
@@ -5123,7 +5123,7 @@
         <v>0</v>
       </c>
       <c r="R25" s="0">
-        <v>1</v>
+        <v>0.71752385970436616</v>
       </c>
       <c r="S25" s="0">
         <v>0</v>
@@ -5302,7 +5302,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" s="0">
         <v>0</v>
@@ -5314,7 +5314,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="0">
-        <v>0</v>
+        <v>0.85758688003321681</v>
       </c>
       <c r="N26" s="0">
         <v>0</v>
@@ -5347,7 +5347,7 @@
         <v>0</v>
       </c>
       <c r="X26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y26" s="0">
         <v>0</v>
@@ -5356,10 +5356,10 @@
         <v>0</v>
       </c>
       <c r="AA26" s="0">
-        <v>0</v>
+        <v>0.52449478021065365</v>
       </c>
       <c r="AB26" s="0">
-        <v>0</v>
+        <v>0.92929929357605057</v>
       </c>
       <c r="AC26" s="0">
         <v>0</v>
@@ -5392,7 +5392,7 @@
         <v>0</v>
       </c>
       <c r="AM26" s="0">
-        <v>0</v>
+        <v>0.62588994357626748</v>
       </c>
       <c r="AN26" s="0">
         <v>0</v>
@@ -5422,7 +5422,7 @@
         <v>0</v>
       </c>
       <c r="AW26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX26" s="0">
         <v>0</v>
@@ -5434,7 +5434,7 @@
         <v>0</v>
       </c>
       <c r="BA26" s="0">
-        <v>0</v>
+        <v>0.61147474877228292</v>
       </c>
       <c r="BB26" s="0">
         <v>0</v>
@@ -5538,7 +5538,7 @@
         <v>0</v>
       </c>
       <c r="S27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T27" s="0">
         <v>0</v>
@@ -5547,7 +5547,7 @@
         <v>0</v>
       </c>
       <c r="V27" s="0">
-        <v>0</v>
+        <v>0.81675974679442986</v>
       </c>
       <c r="W27" s="0">
         <v>0</v>
@@ -5559,7 +5559,7 @@
         <v>0</v>
       </c>
       <c r="Z27" s="0">
-        <v>0</v>
+        <v>0.75947555550222967</v>
       </c>
       <c r="AA27" s="0">
         <v>0</v>
@@ -5589,7 +5589,7 @@
         <v>0</v>
       </c>
       <c r="AJ27" s="0">
-        <v>0</v>
+        <v>0.58749441423780879</v>
       </c>
       <c r="AK27" s="0">
         <v>0</v>
@@ -5643,7 +5643,7 @@
         <v>0</v>
       </c>
       <c r="BB27" s="0">
-        <v>0</v>
+        <v>0.65197757607803519</v>
       </c>
       <c r="BC27" s="0">
         <v>0</v>
@@ -5652,7 +5652,7 @@
         <v>0</v>
       </c>
       <c r="BE27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF27" s="0">
         <v>0</v>
@@ -5661,7 +5661,7 @@
         <v>0</v>
       </c>
       <c r="BH27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI27" s="0">
         <v>0</v>
@@ -5693,7 +5693,7 @@
         <v>0</v>
       </c>
       <c r="B28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" s="0">
         <v>0</v>
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N28" s="0">
         <v>0</v>
@@ -5750,7 +5750,7 @@
         <v>0</v>
       </c>
       <c r="U28" s="0">
-        <v>0</v>
+        <v>0.98844187592679833</v>
       </c>
       <c r="V28" s="0">
         <v>0</v>
@@ -5765,7 +5765,7 @@
         <v>0</v>
       </c>
       <c r="Z28" s="0">
-        <v>0</v>
+        <v>0.84674793689128114</v>
       </c>
       <c r="AA28" s="0">
         <v>0</v>
@@ -5780,7 +5780,7 @@
         <v>0</v>
       </c>
       <c r="AE28" s="0">
-        <v>0</v>
+        <v>0.91249449191980814</v>
       </c>
       <c r="AF28" s="0">
         <v>0</v>
@@ -5801,13 +5801,13 @@
         <v>0</v>
       </c>
       <c r="AL28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM28" s="0">
         <v>0</v>
       </c>
       <c r="AN28" s="0">
-        <v>0</v>
+        <v>0.88399032378371223</v>
       </c>
       <c r="AO28" s="0">
         <v>0</v>
@@ -5855,7 +5855,7 @@
         <v>0</v>
       </c>
       <c r="BD28" s="0">
-        <v>0</v>
+        <v>0.7771585912952943</v>
       </c>
       <c r="BE28" s="0">
         <v>0</v>
@@ -5873,7 +5873,7 @@
         <v>0</v>
       </c>
       <c r="BJ28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK28" s="0">
         <v>0</v>
@@ -5920,7 +5920,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="0">
-        <v>0</v>
+        <v>0.73894809781495652</v>
       </c>
       <c r="J29" s="0">
         <v>0</v>
@@ -5929,13 +5929,13 @@
         <v>0</v>
       </c>
       <c r="L29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M29" s="0">
         <v>0</v>
       </c>
       <c r="N29" s="0">
-        <v>0</v>
+        <v>0.98990153019225313</v>
       </c>
       <c r="O29" s="0">
         <v>0</v>
@@ -5983,13 +5983,13 @@
         <v>0</v>
       </c>
       <c r="AD29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE29" s="0">
         <v>0</v>
       </c>
       <c r="AF29" s="0">
-        <v>0</v>
+        <v>0.83426942600910192</v>
       </c>
       <c r="AG29" s="0">
         <v>0</v>
@@ -6010,7 +6010,7 @@
         <v>0</v>
       </c>
       <c r="AM29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN29" s="0">
         <v>0</v>
@@ -6186,16 +6186,16 @@
         <v>0</v>
       </c>
       <c r="AC30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD30" s="0">
         <v>0</v>
       </c>
       <c r="AE30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG30" s="0">
         <v>0</v>
@@ -6207,13 +6207,13 @@
         <v>0</v>
       </c>
       <c r="AJ30" s="0">
-        <v>0</v>
+        <v>0.67549835441480144</v>
       </c>
       <c r="AK30" s="0">
         <v>0</v>
       </c>
       <c r="AL30" s="0">
-        <v>0</v>
+        <v>0.85403232933752904</v>
       </c>
       <c r="AM30" s="0">
         <v>0</v>
@@ -6228,7 +6228,7 @@
         <v>0</v>
       </c>
       <c r="AQ30" s="0">
-        <v>0</v>
+        <v>0.52145958110265456</v>
       </c>
       <c r="AR30" s="0">
         <v>0</v>
@@ -6252,7 +6252,7 @@
         <v>0</v>
       </c>
       <c r="AY30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ30" s="0">
         <v>0</v>
@@ -6314,7 +6314,7 @@
         <v>0</v>
       </c>
       <c r="C31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31" s="0">
         <v>0</v>
@@ -6374,7 +6374,7 @@
         <v>0</v>
       </c>
       <c r="W31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X31" s="0">
         <v>0</v>
@@ -6389,13 +6389,13 @@
         <v>0</v>
       </c>
       <c r="AB31" s="0">
-        <v>0</v>
+        <v>0.84653071401250135</v>
       </c>
       <c r="AC31" s="0">
         <v>0</v>
       </c>
       <c r="AD31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE31" s="0">
         <v>0</v>
@@ -6404,7 +6404,7 @@
         <v>0</v>
       </c>
       <c r="AG31" s="0">
-        <v>0</v>
+        <v>0.95122432773898891</v>
       </c>
       <c r="AH31" s="0">
         <v>0</v>
@@ -6413,10 +6413,10 @@
         <v>0</v>
       </c>
       <c r="AJ31" s="0">
-        <v>0</v>
+        <v>0.81794177123639122</v>
       </c>
       <c r="AK31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL31" s="0">
         <v>0</v>
@@ -6434,13 +6434,13 @@
         <v>0</v>
       </c>
       <c r="AQ31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR31" s="0">
         <v>0</v>
       </c>
       <c r="AS31" s="0">
-        <v>0</v>
+        <v>0.6986321427134341</v>
       </c>
       <c r="AT31" s="0">
         <v>0</v>
@@ -6461,7 +6461,7 @@
         <v>0</v>
       </c>
       <c r="AZ31" s="0">
-        <v>0</v>
+        <v>0.99232817858182831</v>
       </c>
       <c r="BA31" s="0">
         <v>0</v>
@@ -6500,7 +6500,7 @@
         <v>0</v>
       </c>
       <c r="BM31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN31" s="0">
         <v>0</v>
@@ -6520,7 +6520,7 @@
         <v>0</v>
       </c>
       <c r="C32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32" s="0">
         <v>0</v>
@@ -6535,7 +6535,7 @@
         <v>0</v>
       </c>
       <c r="H32" s="0">
-        <v>0</v>
+        <v>0.80806341304667684</v>
       </c>
       <c r="I32" s="0">
         <v>0</v>
@@ -6598,10 +6598,10 @@
         <v>0</v>
       </c>
       <c r="AC32" s="0">
-        <v>0</v>
+        <v>0.89785474085875472</v>
       </c>
       <c r="AD32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE32" s="0">
         <v>0</v>
@@ -6610,7 +6610,7 @@
         <v>0</v>
       </c>
       <c r="AG32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH32" s="0">
         <v>0</v>
@@ -6625,7 +6625,7 @@
         <v>0</v>
       </c>
       <c r="AL32" s="0">
-        <v>0</v>
+        <v>0.75049577410789259</v>
       </c>
       <c r="AM32" s="0">
         <v>0</v>
@@ -6673,7 +6673,7 @@
         <v>0</v>
       </c>
       <c r="BB32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC32" s="0">
         <v>0</v>
@@ -6694,7 +6694,7 @@
         <v>0</v>
       </c>
       <c r="BI32" s="0">
-        <v>0</v>
+        <v>0.80808182861523126</v>
       </c>
       <c r="BJ32" s="0">
         <v>0</v>
@@ -6720,7 +6720,7 @@
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0</v>
+        <v>0.77981146120731215</v>
       </c>
       <c r="B33" s="0">
         <v>0</v>
@@ -6810,16 +6810,16 @@
         <v>0</v>
       </c>
       <c r="AE33" s="0">
-        <v>0</v>
+        <v>0.82511375048581892</v>
       </c>
       <c r="AF33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG33" s="0">
         <v>0</v>
       </c>
       <c r="AH33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI33" s="0">
         <v>0</v>
@@ -6837,7 +6837,7 @@
         <v>0</v>
       </c>
       <c r="AN33" s="0">
-        <v>0</v>
+        <v>0.5410871945750797</v>
       </c>
       <c r="AO33" s="0">
         <v>0</v>
@@ -6849,7 +6849,7 @@
         <v>0</v>
       </c>
       <c r="AR33" s="0">
-        <v>0</v>
+        <v>0.97383374312249282</v>
       </c>
       <c r="AS33" s="0">
         <v>0</v>
@@ -6912,7 +6912,7 @@
         <v>0</v>
       </c>
       <c r="BM33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN33" s="0">
         <v>0</v>
@@ -6932,7 +6932,7 @@
         <v>0</v>
       </c>
       <c r="C34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34" s="0">
         <v>0</v>
@@ -6971,13 +6971,13 @@
         <v>0</v>
       </c>
       <c r="P34" s="0">
-        <v>0</v>
+        <v>0.89774102219073981</v>
       </c>
       <c r="Q34" s="0">
         <v>0</v>
       </c>
       <c r="R34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S34" s="0">
         <v>0</v>
@@ -7022,13 +7022,13 @@
         <v>0</v>
       </c>
       <c r="AG34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH34" s="0">
         <v>0</v>
       </c>
       <c r="AI34" s="0">
-        <v>0</v>
+        <v>0.84324955055266981</v>
       </c>
       <c r="AJ34" s="0">
         <v>0</v>
@@ -7049,7 +7049,7 @@
         <v>0</v>
       </c>
       <c r="AP34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ34" s="0">
         <v>0</v>
@@ -7103,7 +7103,7 @@
         <v>0</v>
       </c>
       <c r="BH34" s="0">
-        <v>0</v>
+        <v>0.97820461008365034</v>
       </c>
       <c r="BI34" s="0">
         <v>0</v>
@@ -7135,7 +7135,7 @@
         <v>0</v>
       </c>
       <c r="B35" s="0">
-        <v>0</v>
+        <v>0.52151112331027316</v>
       </c>
       <c r="C35" s="0">
         <v>0</v>
@@ -7156,7 +7156,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" s="0">
         <v>0</v>
@@ -7195,7 +7195,7 @@
         <v>0</v>
       </c>
       <c r="V35" s="0">
-        <v>1</v>
+        <v>0.98869830784186163</v>
       </c>
       <c r="W35" s="0">
         <v>0</v>
@@ -7231,7 +7231,7 @@
         <v>0</v>
       </c>
       <c r="AH35" s="0">
-        <v>0</v>
+        <v>0.53267524291246526</v>
       </c>
       <c r="AI35" s="0">
         <v>0</v>
@@ -7249,13 +7249,13 @@
         <v>0</v>
       </c>
       <c r="AN35" s="0">
-        <v>0</v>
+        <v>0.57190329701040299</v>
       </c>
       <c r="AO35" s="0">
         <v>0</v>
       </c>
       <c r="AP35" s="0">
-        <v>0</v>
+        <v>0.79013735957995723</v>
       </c>
       <c r="AQ35" s="0">
         <v>0</v>
@@ -7279,7 +7279,7 @@
         <v>0</v>
       </c>
       <c r="AX35" s="0">
-        <v>0</v>
+        <v>0.54945288775279755</v>
       </c>
       <c r="AY35" s="0">
         <v>0</v>
@@ -7306,7 +7306,7 @@
         <v>0</v>
       </c>
       <c r="BG35" s="0">
-        <v>0</v>
+        <v>0.58736283627340546</v>
       </c>
       <c r="BH35" s="0">
         <v>0</v>
@@ -7338,7 +7338,7 @@
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B36" s="0">
         <v>0</v>
@@ -7389,16 +7389,16 @@
         <v>0</v>
       </c>
       <c r="R36" s="0">
-        <v>0</v>
+        <v>0.91139086023323568</v>
       </c>
       <c r="S36" s="0">
         <v>0</v>
       </c>
       <c r="T36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U36" s="0">
-        <v>0</v>
+        <v>0.69233154821932796</v>
       </c>
       <c r="V36" s="0">
         <v>0</v>
@@ -7416,7 +7416,7 @@
         <v>0</v>
       </c>
       <c r="AA36" s="0">
-        <v>0</v>
+        <v>0.88615516104249537</v>
       </c>
       <c r="AB36" s="0">
         <v>0</v>
@@ -7425,10 +7425,10 @@
         <v>0</v>
       </c>
       <c r="AD36" s="0">
-        <v>0</v>
+        <v>0.55126658396141859</v>
       </c>
       <c r="AE36" s="0">
-        <v>0</v>
+        <v>0.53622891487433511</v>
       </c>
       <c r="AF36" s="0">
         <v>0</v>
@@ -7449,7 +7449,7 @@
         <v>0</v>
       </c>
       <c r="AL36" s="0">
-        <v>0</v>
+        <v>0.5464216340211534</v>
       </c>
       <c r="AM36" s="0">
         <v>0</v>
@@ -7509,7 +7509,7 @@
         <v>0</v>
       </c>
       <c r="BF36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG36" s="0">
         <v>0</v>
@@ -7550,10 +7550,10 @@
         <v>0</v>
       </c>
       <c r="C37" s="0">
-        <v>0</v>
+        <v>0.98016668558573472</v>
       </c>
       <c r="D37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E37" s="0">
         <v>0</v>
@@ -7562,13 +7562,13 @@
         <v>0</v>
       </c>
       <c r="G37" s="0">
-        <v>0</v>
+        <v>0.60259438482819072</v>
       </c>
       <c r="H37" s="0">
         <v>0</v>
       </c>
       <c r="I37" s="0">
-        <v>0</v>
+        <v>0.62026876177422496</v>
       </c>
       <c r="J37" s="0">
         <v>0</v>
@@ -7634,7 +7634,7 @@
         <v>0</v>
       </c>
       <c r="AE37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF37" s="0">
         <v>0</v>
@@ -7655,7 +7655,7 @@
         <v>0</v>
       </c>
       <c r="AL37" s="0">
-        <v>0</v>
+        <v>0.65866437802670974</v>
       </c>
       <c r="AM37" s="0">
         <v>0</v>
@@ -7670,7 +7670,7 @@
         <v>0</v>
       </c>
       <c r="AQ37" s="0">
-        <v>0</v>
+        <v>0.94727587483511333</v>
       </c>
       <c r="AR37" s="0">
         <v>0</v>
@@ -7688,7 +7688,7 @@
         <v>0</v>
       </c>
       <c r="AW37" s="0">
-        <v>1</v>
+        <v>0.71035692903644221</v>
       </c>
       <c r="AX37" s="0">
         <v>0</v>
@@ -7697,7 +7697,7 @@
         <v>0</v>
       </c>
       <c r="AZ37" s="0">
-        <v>0</v>
+        <v>0.87711331596693554</v>
       </c>
       <c r="BA37" s="0">
         <v>0</v>
@@ -7709,7 +7709,7 @@
         <v>0</v>
       </c>
       <c r="BD37" s="0">
-        <v>0</v>
+        <v>0.59497142513902057</v>
       </c>
       <c r="BE37" s="0">
         <v>0</v>
@@ -7724,7 +7724,7 @@
         <v>0</v>
       </c>
       <c r="BI37" s="0">
-        <v>0</v>
+        <v>0.65387964140097532</v>
       </c>
       <c r="BJ37" s="0">
         <v>0</v>
@@ -7816,7 +7816,7 @@
         <v>0</v>
       </c>
       <c r="W38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X38" s="0">
         <v>0</v>
@@ -7831,19 +7831,19 @@
         <v>0</v>
       </c>
       <c r="AB38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC38" s="0">
         <v>0</v>
       </c>
       <c r="AD38" s="0">
-        <v>0</v>
+        <v>0.53040268402365709</v>
       </c>
       <c r="AE38" s="0">
         <v>0</v>
       </c>
       <c r="AF38" s="0">
-        <v>0</v>
+        <v>0.86605839272339968</v>
       </c>
       <c r="AG38" s="0">
         <v>0</v>
@@ -7855,10 +7855,10 @@
         <v>0</v>
       </c>
       <c r="AJ38" s="0">
-        <v>0</v>
+        <v>0.69803996706879501</v>
       </c>
       <c r="AK38" s="0">
-        <v>0</v>
+        <v>0.51698946742185559</v>
       </c>
       <c r="AL38" s="0">
         <v>0</v>
@@ -7867,7 +7867,7 @@
         <v>0</v>
       </c>
       <c r="AN38" s="0">
-        <v>0</v>
+        <v>0.94711626225650236</v>
       </c>
       <c r="AO38" s="0">
         <v>0</v>
@@ -7930,7 +7930,7 @@
         <v>0</v>
       </c>
       <c r="BI38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ38" s="0">
         <v>0</v>
@@ -7951,7 +7951,7 @@
         <v>0</v>
       </c>
       <c r="BP38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -8025,13 +8025,13 @@
         <v>0</v>
       </c>
       <c r="X39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y39" s="0">
         <v>0</v>
       </c>
       <c r="Z39" s="0">
-        <v>0</v>
+        <v>0.79588381114698703</v>
       </c>
       <c r="AA39" s="0">
         <v>0</v>
@@ -8040,7 +8040,7 @@
         <v>0</v>
       </c>
       <c r="AC39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD39" s="0">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="AO39" s="0">
-        <v>1</v>
+        <v>0.74375866245679201</v>
       </c>
       <c r="AP39" s="0">
         <v>0</v>
@@ -8109,7 +8109,7 @@
         <v>0</v>
       </c>
       <c r="AZ39" s="0">
-        <v>0</v>
+        <v>0.60998746876260201</v>
       </c>
       <c r="BA39" s="0">
         <v>0</v>
@@ -8127,7 +8127,7 @@
         <v>0</v>
       </c>
       <c r="BF39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG39" s="0">
         <v>0</v>
@@ -8139,7 +8139,7 @@
         <v>0</v>
       </c>
       <c r="BJ39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK39" s="0">
         <v>0</v>
@@ -8162,7 +8162,7 @@
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>0</v>
+        <v>0.93150182725711295</v>
       </c>
       <c r="B40" s="0">
         <v>0</v>
@@ -8174,7 +8174,7 @@
         <v>0</v>
       </c>
       <c r="E40" s="0">
-        <v>0</v>
+        <v>0.94998839133393742</v>
       </c>
       <c r="F40" s="0">
         <v>0</v>
@@ -8243,7 +8243,7 @@
         <v>0</v>
       </c>
       <c r="AB40" s="0">
-        <v>0</v>
+        <v>0.83196406800559419</v>
       </c>
       <c r="AC40" s="0">
         <v>0</v>
@@ -8258,13 +8258,13 @@
         <v>0</v>
       </c>
       <c r="AG40" s="0">
-        <v>0</v>
+        <v>0.83516690096664337</v>
       </c>
       <c r="AH40" s="0">
         <v>0</v>
       </c>
       <c r="AI40" s="0">
-        <v>0</v>
+        <v>0.91181949466678347</v>
       </c>
       <c r="AJ40" s="0">
         <v>0</v>
@@ -8273,7 +8273,7 @@
         <v>0</v>
       </c>
       <c r="AL40" s="0">
-        <v>0</v>
+        <v>0.7711608495975032</v>
       </c>
       <c r="AM40" s="0">
         <v>0</v>
@@ -8339,13 +8339,13 @@
         <v>0</v>
       </c>
       <c r="BH40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI40" s="0">
         <v>0</v>
       </c>
       <c r="BJ40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK40" s="0">
         <v>0</v>
@@ -8482,7 +8482,7 @@
         <v>0</v>
       </c>
       <c r="AM41" s="0">
-        <v>1</v>
+        <v>0.93002842429591748</v>
       </c>
       <c r="AN41" s="0">
         <v>0</v>
@@ -8494,7 +8494,7 @@
         <v>0</v>
       </c>
       <c r="AQ41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR41" s="0">
         <v>0</v>
@@ -8545,13 +8545,13 @@
         <v>0</v>
       </c>
       <c r="BH41" s="0">
-        <v>0</v>
+        <v>0.99062033294133034</v>
       </c>
       <c r="BI41" s="0">
         <v>0</v>
       </c>
       <c r="BJ41" s="0">
-        <v>0</v>
+        <v>0.95980197421552438</v>
       </c>
       <c r="BK41" s="0">
         <v>0</v>
@@ -8586,13 +8586,13 @@
         <v>0</v>
       </c>
       <c r="E42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42" s="0">
         <v>0</v>
       </c>
       <c r="G42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42" s="0">
         <v>0</v>
@@ -8673,10 +8673,10 @@
         <v>0</v>
       </c>
       <c r="AH42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI42" s="0">
-        <v>0</v>
+        <v>0.58903506615440848</v>
       </c>
       <c r="AJ42" s="0">
         <v>0</v>
@@ -8748,10 +8748,10 @@
         <v>0</v>
       </c>
       <c r="BG42" s="0">
-        <v>0</v>
+        <v>0.94016640628479209</v>
       </c>
       <c r="BH42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI42" s="0">
         <v>0</v>
@@ -8786,7 +8786,7 @@
         <v>0</v>
       </c>
       <c r="C43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D43" s="0">
         <v>0</v>
@@ -8807,7 +8807,7 @@
         <v>0</v>
       </c>
       <c r="J43" s="0">
-        <v>0</v>
+        <v>0.58464523803568491</v>
       </c>
       <c r="K43" s="0">
         <v>0</v>
@@ -8816,7 +8816,7 @@
         <v>0</v>
       </c>
       <c r="M43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N43" s="0">
         <v>0</v>
@@ -8825,7 +8825,7 @@
         <v>0</v>
       </c>
       <c r="P43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q43" s="0">
         <v>0</v>
@@ -8867,10 +8867,10 @@
         <v>0</v>
       </c>
       <c r="AD43" s="0">
-        <v>0</v>
+        <v>0.63560286805506694</v>
       </c>
       <c r="AE43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF43" s="0">
         <v>0</v>
@@ -8888,7 +8888,7 @@
         <v>0</v>
       </c>
       <c r="AK43" s="0">
-        <v>0</v>
+        <v>0.75604142039831757</v>
       </c>
       <c r="AL43" s="0">
         <v>0</v>
@@ -8900,7 +8900,7 @@
         <v>0</v>
       </c>
       <c r="AO43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP43" s="0">
         <v>0</v>
@@ -8912,7 +8912,7 @@
         <v>0</v>
       </c>
       <c r="AS43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT43" s="0">
         <v>0</v>
@@ -9013,7 +9013,7 @@
         <v>0</v>
       </c>
       <c r="J44" s="0">
-        <v>1</v>
+        <v>0.92999353554773223</v>
       </c>
       <c r="K44" s="0">
         <v>0</v>
@@ -9040,7 +9040,7 @@
         <v>0</v>
       </c>
       <c r="S44" s="0">
-        <v>0</v>
+        <v>0.61109199562700334</v>
       </c>
       <c r="T44" s="0">
         <v>0</v>
@@ -9082,7 +9082,7 @@
         <v>0</v>
       </c>
       <c r="AG44" s="0">
-        <v>0</v>
+        <v>0.7615672979698529</v>
       </c>
       <c r="AH44" s="0">
         <v>0</v>
@@ -9118,7 +9118,7 @@
         <v>0</v>
       </c>
       <c r="AS44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT44" s="0">
         <v>0</v>
@@ -9169,7 +9169,7 @@
         <v>0</v>
       </c>
       <c r="BJ44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK44" s="0">
         <v>0</v>
@@ -9231,7 +9231,7 @@
         <v>0</v>
       </c>
       <c r="N45" s="0">
-        <v>0</v>
+        <v>0.83350285841163252</v>
       </c>
       <c r="O45" s="0">
         <v>0</v>
@@ -9282,7 +9282,7 @@
         <v>0</v>
       </c>
       <c r="AE45" s="0">
-        <v>0</v>
+        <v>0.72614002866915439</v>
       </c>
       <c r="AF45" s="0">
         <v>0</v>
@@ -9318,10 +9318,10 @@
         <v>0</v>
       </c>
       <c r="AQ45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS45" s="0">
         <v>0</v>
@@ -9330,7 +9330,7 @@
         <v>0</v>
       </c>
       <c r="AU45" s="0">
-        <v>0</v>
+        <v>0.89164552420792997</v>
       </c>
       <c r="AV45" s="0">
         <v>0</v>
@@ -9348,7 +9348,7 @@
         <v>0</v>
       </c>
       <c r="BA45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB45" s="0">
         <v>0</v>
@@ -9357,7 +9357,7 @@
         <v>0</v>
       </c>
       <c r="BD45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE45" s="0">
         <v>0</v>
@@ -9369,7 +9369,7 @@
         <v>0</v>
       </c>
       <c r="BH45" s="0">
-        <v>0</v>
+        <v>0.95941178893828249</v>
       </c>
       <c r="BI45" s="0">
         <v>0</v>
@@ -9431,7 +9431,7 @@
         <v>0</v>
       </c>
       <c r="L46" s="0">
-        <v>0</v>
+        <v>0.70746887140276726</v>
       </c>
       <c r="M46" s="0">
         <v>0</v>
@@ -9536,10 +9536,10 @@
         <v>0</v>
       </c>
       <c r="AU46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV46" s="0">
-        <v>1</v>
+        <v>0.80923896155635955</v>
       </c>
       <c r="AW46" s="0">
         <v>0</v>
@@ -9581,7 +9581,7 @@
         <v>0</v>
       </c>
       <c r="BJ46" s="0">
-        <v>0</v>
+        <v>0.65108326979826869</v>
       </c>
       <c r="BK46" s="0">
         <v>0</v>
@@ -9610,7 +9610,7 @@
         <v>0</v>
       </c>
       <c r="C47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D47" s="0">
         <v>0</v>
@@ -9667,7 +9667,7 @@
         <v>0</v>
       </c>
       <c r="V47" s="0">
-        <v>0</v>
+        <v>0.67472664904265167</v>
       </c>
       <c r="W47" s="0">
         <v>0</v>
@@ -9736,10 +9736,10 @@
         <v>0</v>
       </c>
       <c r="AS47" s="0">
-        <v>0</v>
+        <v>0.87557802788715855</v>
       </c>
       <c r="AT47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU47" s="0">
         <v>0</v>
@@ -9748,7 +9748,7 @@
         <v>0</v>
       </c>
       <c r="AW47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX47" s="0">
         <v>0</v>
@@ -9775,7 +9775,7 @@
         <v>0</v>
       </c>
       <c r="BF47" s="0">
-        <v>0</v>
+        <v>0.79506197271761347</v>
       </c>
       <c r="BG47" s="0">
         <v>0</v>
@@ -9793,7 +9793,7 @@
         <v>0</v>
       </c>
       <c r="BL47" s="0">
-        <v>1</v>
+        <v>0.90860457997812061</v>
       </c>
       <c r="BM47" s="0">
         <v>0</v>
@@ -9834,7 +9834,7 @@
         <v>0</v>
       </c>
       <c r="I48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" s="0">
         <v>0</v>
@@ -9855,7 +9855,7 @@
         <v>0</v>
       </c>
       <c r="P48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q48" s="0">
         <v>0</v>
@@ -9864,7 +9864,7 @@
         <v>0</v>
       </c>
       <c r="S48" s="0">
-        <v>0</v>
+        <v>0.67410244795930718</v>
       </c>
       <c r="T48" s="0">
         <v>0</v>
@@ -9879,7 +9879,7 @@
         <v>0</v>
       </c>
       <c r="X48" s="0">
-        <v>0</v>
+        <v>0.83723835530089574</v>
       </c>
       <c r="Y48" s="0">
         <v>0</v>
@@ -9945,7 +9945,7 @@
         <v>0</v>
       </c>
       <c r="AT48" s="0">
-        <v>1</v>
+        <v>0.62342340943421293</v>
       </c>
       <c r="AU48" s="0">
         <v>0</v>
@@ -10043,7 +10043,7 @@
         <v>0</v>
       </c>
       <c r="J49" s="0">
-        <v>1</v>
+        <v>0.78733227599403421</v>
       </c>
       <c r="K49" s="0">
         <v>0</v>
@@ -10091,7 +10091,7 @@
         <v>0</v>
       </c>
       <c r="Z49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA49" s="0">
         <v>0</v>
@@ -10124,7 +10124,7 @@
         <v>0</v>
       </c>
       <c r="AK49" s="0">
-        <v>1</v>
+        <v>0.66826115067590997</v>
       </c>
       <c r="AL49" s="0">
         <v>0</v>
@@ -10154,7 +10154,7 @@
         <v>0</v>
       </c>
       <c r="AU49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV49" s="0">
         <v>0</v>
@@ -10163,7 +10163,7 @@
         <v>0</v>
       </c>
       <c r="AX49" s="0">
-        <v>0</v>
+        <v>0.67820610169304119</v>
       </c>
       <c r="AY49" s="0">
         <v>0</v>
@@ -10199,7 +10199,7 @@
         <v>0</v>
       </c>
       <c r="BJ49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK49" s="0">
         <v>0</v>
@@ -10208,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="BM49" s="0">
-        <v>0</v>
+        <v>0.77821807786408304</v>
       </c>
       <c r="BN49" s="0">
         <v>0</v>
@@ -10243,7 +10243,7 @@
         <v>0</v>
       </c>
       <c r="H50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" s="0">
         <v>0</v>
@@ -10285,7 +10285,7 @@
         <v>0</v>
       </c>
       <c r="V50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W50" s="0">
         <v>0</v>
@@ -10324,7 +10324,7 @@
         <v>0</v>
       </c>
       <c r="AI50" s="0">
-        <v>0</v>
+        <v>0.6014291781405936</v>
       </c>
       <c r="AJ50" s="0">
         <v>0</v>
@@ -10366,7 +10366,7 @@
         <v>0</v>
       </c>
       <c r="AW50" s="0">
-        <v>0</v>
+        <v>0.61498385570473879</v>
       </c>
       <c r="AX50" s="0">
         <v>0</v>
@@ -10375,7 +10375,7 @@
         <v>0</v>
       </c>
       <c r="AZ50" s="0">
-        <v>0</v>
+        <v>0.67082199545025589</v>
       </c>
       <c r="BA50" s="0">
         <v>0</v>
@@ -10390,13 +10390,13 @@
         <v>0</v>
       </c>
       <c r="BE50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF50" s="0">
         <v>0</v>
       </c>
       <c r="BG50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH50" s="0">
         <v>0</v>
@@ -10467,7 +10467,7 @@
         <v>0</v>
       </c>
       <c r="N51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O51" s="0">
         <v>0</v>
@@ -10494,7 +10494,7 @@
         <v>0</v>
       </c>
       <c r="W51" s="0">
-        <v>0</v>
+        <v>0.79554245168370485</v>
       </c>
       <c r="X51" s="0">
         <v>0</v>
@@ -10515,7 +10515,7 @@
         <v>0</v>
       </c>
       <c r="AD51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE51" s="0">
         <v>0</v>
@@ -10599,7 +10599,7 @@
         <v>0</v>
       </c>
       <c r="BF51" s="0">
-        <v>0</v>
+        <v>0.54607723797610797</v>
       </c>
       <c r="BG51" s="0">
         <v>0</v>
@@ -10626,7 +10626,7 @@
         <v>0</v>
       </c>
       <c r="BO51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP51" s="0">
         <v>0</v>
@@ -10643,7 +10643,7 @@
         <v>0</v>
       </c>
       <c r="D52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E52" s="0">
         <v>0</v>
@@ -10655,7 +10655,7 @@
         <v>0</v>
       </c>
       <c r="H52" s="0">
-        <v>0</v>
+        <v>0.68948266149823956</v>
       </c>
       <c r="I52" s="0">
         <v>0</v>
@@ -10691,7 +10691,7 @@
         <v>0</v>
       </c>
       <c r="T52" s="0">
-        <v>0</v>
+        <v>0.54037167939065256</v>
       </c>
       <c r="U52" s="0">
         <v>0</v>
@@ -10724,7 +10724,7 @@
         <v>0</v>
       </c>
       <c r="AE52" s="0">
-        <v>0</v>
+        <v>0.85085505386839388</v>
       </c>
       <c r="AF52" s="0">
         <v>0</v>
@@ -10742,13 +10742,13 @@
         <v>0</v>
       </c>
       <c r="AK52" s="0">
-        <v>0</v>
+        <v>0.95821136464703849</v>
       </c>
       <c r="AL52" s="0">
         <v>0</v>
       </c>
       <c r="AM52" s="0">
-        <v>0</v>
+        <v>0.64070501939003377</v>
       </c>
       <c r="AN52" s="0">
         <v>0</v>
@@ -10781,7 +10781,7 @@
         <v>0</v>
       </c>
       <c r="AX52" s="0">
-        <v>0</v>
+        <v>0.55179275713853615</v>
       </c>
       <c r="AY52" s="0">
         <v>0</v>
@@ -10790,7 +10790,7 @@
         <v>0</v>
       </c>
       <c r="BA52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB52" s="0">
         <v>0</v>
@@ -10799,7 +10799,7 @@
         <v>0</v>
       </c>
       <c r="BD52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE52" s="0">
         <v>0</v>
@@ -10861,10 +10861,10 @@
         <v>0</v>
       </c>
       <c r="H53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53" s="0">
         <v>0</v>
@@ -10915,7 +10915,7 @@
         <v>0</v>
       </c>
       <c r="Z53" s="0">
-        <v>0</v>
+        <v>0.55377812668299531</v>
       </c>
       <c r="AA53" s="0">
         <v>0</v>
@@ -10972,7 +10972,7 @@
         <v>0</v>
       </c>
       <c r="AS53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT53" s="0">
         <v>0</v>
@@ -10993,13 +10993,13 @@
         <v>0</v>
       </c>
       <c r="AZ53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA53" s="0">
         <v>0</v>
       </c>
       <c r="BB53" s="0">
-        <v>0</v>
+        <v>0.70253255448120799</v>
       </c>
       <c r="BC53" s="0">
         <v>0</v>
@@ -11008,7 +11008,7 @@
         <v>0</v>
       </c>
       <c r="BE53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF53" s="0">
         <v>0</v>
@@ -11020,10 +11020,10 @@
         <v>0</v>
       </c>
       <c r="BI53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK53" s="0">
         <v>0</v>
@@ -11035,13 +11035,13 @@
         <v>0</v>
       </c>
       <c r="BN53" s="0">
-        <v>0</v>
+        <v>0.59836260147436593</v>
       </c>
       <c r="BO53" s="0">
         <v>0</v>
       </c>
       <c r="BP53" s="0">
-        <v>0</v>
+        <v>0.993487217442107</v>
       </c>
     </row>
     <row r="54">
@@ -11103,7 +11103,7 @@
         <v>0</v>
       </c>
       <c r="T54" s="0">
-        <v>1</v>
+        <v>0.91427612589555074</v>
       </c>
       <c r="U54" s="0">
         <v>0</v>
@@ -11124,7 +11124,7 @@
         <v>0</v>
       </c>
       <c r="AA54" s="0">
-        <v>0</v>
+        <v>0.5741478790454142</v>
       </c>
       <c r="AB54" s="0">
         <v>0</v>
@@ -11139,7 +11139,7 @@
         <v>0</v>
       </c>
       <c r="AF54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG54" s="0">
         <v>0</v>
@@ -11202,7 +11202,7 @@
         <v>0</v>
       </c>
       <c r="BA54" s="0">
-        <v>0</v>
+        <v>0.63708751080893866</v>
       </c>
       <c r="BB54" s="0">
         <v>0</v>
@@ -11217,7 +11217,7 @@
         <v>0</v>
       </c>
       <c r="BF54" s="0">
-        <v>0</v>
+        <v>0.67310421923580499</v>
       </c>
       <c r="BG54" s="0">
         <v>0</v>
@@ -11235,7 +11235,7 @@
         <v>0</v>
       </c>
       <c r="BL54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM54" s="0">
         <v>0</v>
@@ -11417,10 +11417,10 @@
         <v>0</v>
       </c>
       <c r="BD55" s="0">
-        <v>1</v>
+        <v>0.67990899838365593</v>
       </c>
       <c r="BE55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF55" s="0">
         <v>0</v>
@@ -11453,7 +11453,7 @@
         <v>0</v>
       </c>
       <c r="BP55" s="0">
-        <v>0</v>
+        <v>0.73255708316696877</v>
       </c>
     </row>
     <row r="56">
@@ -11488,7 +11488,7 @@
         <v>0</v>
       </c>
       <c r="K56" s="0">
-        <v>0</v>
+        <v>0.89599671328037456</v>
       </c>
       <c r="L56" s="0">
         <v>0</v>
@@ -11500,7 +11500,7 @@
         <v>0</v>
       </c>
       <c r="O56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P56" s="0">
         <v>0</v>
@@ -11539,7 +11539,7 @@
         <v>0</v>
       </c>
       <c r="AB56" s="0">
-        <v>0</v>
+        <v>0.79087350698500147</v>
       </c>
       <c r="AC56" s="0">
         <v>0</v>
@@ -11566,7 +11566,7 @@
         <v>0</v>
       </c>
       <c r="AK56" s="0">
-        <v>0</v>
+        <v>0.79209202072541807</v>
       </c>
       <c r="AL56" s="0">
         <v>0</v>
@@ -11590,7 +11590,7 @@
         <v>0</v>
       </c>
       <c r="AS56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT56" s="0">
         <v>0</v>
@@ -11611,7 +11611,7 @@
         <v>0</v>
       </c>
       <c r="AZ56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA56" s="0">
         <v>0</v>
@@ -11620,7 +11620,7 @@
         <v>0</v>
       </c>
       <c r="BC56" s="0">
-        <v>1</v>
+        <v>0.59547356461100498</v>
       </c>
       <c r="BD56" s="0">
         <v>0</v>
@@ -11629,7 +11629,7 @@
         <v>0</v>
       </c>
       <c r="BF56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG56" s="0">
         <v>0</v>
@@ -11641,7 +11641,7 @@
         <v>0</v>
       </c>
       <c r="BJ56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK56" s="0">
         <v>0</v>
@@ -11670,7 +11670,7 @@
         <v>0</v>
       </c>
       <c r="C57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D57" s="0">
         <v>0</v>
@@ -11679,7 +11679,7 @@
         <v>0</v>
       </c>
       <c r="F57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G57" s="0">
         <v>0</v>
@@ -11709,7 +11709,7 @@
         <v>0</v>
       </c>
       <c r="P57" s="0">
-        <v>0</v>
+        <v>0.8854236654860308</v>
       </c>
       <c r="Q57" s="0">
         <v>0</v>
@@ -11733,7 +11733,7 @@
         <v>0</v>
       </c>
       <c r="X57" s="0">
-        <v>0</v>
+        <v>0.97251528209599525</v>
       </c>
       <c r="Y57" s="0">
         <v>0</v>
@@ -11742,7 +11742,7 @@
         <v>0</v>
       </c>
       <c r="AA57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB57" s="0">
         <v>0</v>
@@ -11811,7 +11811,7 @@
         <v>0</v>
       </c>
       <c r="AX57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY57" s="0">
         <v>0</v>
@@ -11820,13 +11820,13 @@
         <v>0</v>
       </c>
       <c r="BA57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB57" s="0">
         <v>0</v>
       </c>
       <c r="BC57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD57" s="0">
         <v>0</v>
@@ -11838,7 +11838,7 @@
         <v>0</v>
       </c>
       <c r="BG57" s="0">
-        <v>0</v>
+        <v>0.79774147977022447</v>
       </c>
       <c r="BH57" s="0">
         <v>0</v>
@@ -11909,7 +11909,7 @@
         <v>0</v>
       </c>
       <c r="N58" s="0">
-        <v>0</v>
+        <v>0.58940602711943746</v>
       </c>
       <c r="O58" s="0">
         <v>0</v>
@@ -11936,7 +11936,7 @@
         <v>0</v>
       </c>
       <c r="W58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X58" s="0">
         <v>0</v>
@@ -11975,7 +11975,7 @@
         <v>0</v>
       </c>
       <c r="AJ58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK58" s="0">
         <v>0</v>
@@ -11984,7 +11984,7 @@
         <v>0</v>
       </c>
       <c r="AM58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN58" s="0">
         <v>0</v>
@@ -12008,7 +12008,7 @@
         <v>0</v>
       </c>
       <c r="AU58" s="0">
-        <v>0</v>
+        <v>0.91616520122545486</v>
       </c>
       <c r="AV58" s="0">
         <v>0</v>
@@ -12020,7 +12020,7 @@
         <v>0</v>
       </c>
       <c r="AY58" s="0">
-        <v>0</v>
+        <v>0.9520690451849485</v>
       </c>
       <c r="AZ58" s="0">
         <v>0</v>
@@ -12029,13 +12029,13 @@
         <v>0</v>
       </c>
       <c r="BB58" s="0">
-        <v>0</v>
+        <v>0.72255446803517387</v>
       </c>
       <c r="BC58" s="0">
         <v>0</v>
       </c>
       <c r="BD58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE58" s="0">
         <v>0</v>
@@ -12085,10 +12085,10 @@
         <v>0</v>
       </c>
       <c r="D59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F59" s="0">
         <v>0</v>
@@ -12115,7 +12115,7 @@
         <v>0</v>
       </c>
       <c r="N59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O59" s="0">
         <v>0</v>
@@ -12145,7 +12145,7 @@
         <v>0</v>
       </c>
       <c r="X59" s="0">
-        <v>0</v>
+        <v>0.58710607765186218</v>
       </c>
       <c r="Y59" s="0">
         <v>0</v>
@@ -12178,7 +12178,7 @@
         <v>0</v>
       </c>
       <c r="AI59" s="0">
-        <v>0</v>
+        <v>0.53225223790476084</v>
       </c>
       <c r="AJ59" s="0">
         <v>0</v>
@@ -12199,7 +12199,7 @@
         <v>0</v>
       </c>
       <c r="AP59" s="0">
-        <v>0</v>
+        <v>0.85386519628602486</v>
       </c>
       <c r="AQ59" s="0">
         <v>0</v>
@@ -12223,7 +12223,7 @@
         <v>0</v>
       </c>
       <c r="AX59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY59" s="0">
         <v>0</v>
@@ -12244,7 +12244,7 @@
         <v>0</v>
       </c>
       <c r="BE59" s="0">
-        <v>0</v>
+        <v>0.95750912366456453</v>
       </c>
       <c r="BF59" s="0">
         <v>0</v>
@@ -12262,13 +12262,13 @@
         <v>0</v>
       </c>
       <c r="BK59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL59" s="0">
         <v>0</v>
       </c>
       <c r="BM59" s="0">
-        <v>0</v>
+        <v>0.91493661846143615</v>
       </c>
       <c r="BN59" s="0">
         <v>0</v>
@@ -12327,10 +12327,10 @@
         <v>0</v>
       </c>
       <c r="P60" s="0">
-        <v>0</v>
+        <v>0.69415413541280402</v>
       </c>
       <c r="Q60" s="0">
-        <v>0</v>
+        <v>0.84167855329438024</v>
       </c>
       <c r="R60" s="0">
         <v>0</v>
@@ -12360,7 +12360,7 @@
         <v>0</v>
       </c>
       <c r="AA60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB60" s="0">
         <v>0</v>
@@ -12381,7 +12381,7 @@
         <v>0</v>
       </c>
       <c r="AH60" s="0">
-        <v>0</v>
+        <v>0.57578588128197361</v>
       </c>
       <c r="AI60" s="0">
         <v>0</v>
@@ -12399,13 +12399,13 @@
         <v>0</v>
       </c>
       <c r="AN60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO60" s="0">
-        <v>0</v>
+        <v>0.76492136694273438</v>
       </c>
       <c r="AP60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ60" s="0">
         <v>0</v>
@@ -12414,7 +12414,7 @@
         <v>0</v>
       </c>
       <c r="AS60" s="0">
-        <v>0</v>
+        <v>0.53177652758273408</v>
       </c>
       <c r="AT60" s="0">
         <v>0</v>
@@ -12465,7 +12465,7 @@
         <v>0</v>
       </c>
       <c r="BJ60" s="0">
-        <v>0</v>
+        <v>0.52885361427531774</v>
       </c>
       <c r="BK60" s="0">
         <v>0</v>
@@ -12480,7 +12480,7 @@
         <v>0</v>
       </c>
       <c r="BO60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP60" s="0">
         <v>0</v>
@@ -12491,7 +12491,7 @@
         <v>0</v>
       </c>
       <c r="B61" s="0">
-        <v>0</v>
+        <v>0.62664343123870581</v>
       </c>
       <c r="C61" s="0">
         <v>0</v>
@@ -12509,7 +12509,7 @@
         <v>0</v>
       </c>
       <c r="H61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" s="0">
         <v>0</v>
@@ -12539,7 +12539,7 @@
         <v>0</v>
       </c>
       <c r="R61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S61" s="0">
         <v>0</v>
@@ -12581,7 +12581,7 @@
         <v>0</v>
       </c>
       <c r="AF61" s="0">
-        <v>0</v>
+        <v>0.77399822979079791</v>
       </c>
       <c r="AG61" s="0">
         <v>0</v>
@@ -12596,10 +12596,10 @@
         <v>0</v>
       </c>
       <c r="AK61" s="0">
-        <v>0</v>
+        <v>0.64003051220630702</v>
       </c>
       <c r="AL61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM61" s="0">
         <v>0</v>
@@ -12644,7 +12644,7 @@
         <v>0</v>
       </c>
       <c r="BA61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB61" s="0">
         <v>0</v>
@@ -12677,7 +12677,7 @@
         <v>0</v>
       </c>
       <c r="BL61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM61" s="0">
         <v>0</v>
@@ -12775,7 +12775,7 @@
         <v>0</v>
       </c>
       <c r="AB62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC62" s="0">
         <v>0</v>
@@ -12808,13 +12808,13 @@
         <v>0</v>
       </c>
       <c r="AM62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO62" s="0">
-        <v>0</v>
+        <v>0.9431895787802298</v>
       </c>
       <c r="AP62" s="0">
         <v>0</v>
@@ -12823,13 +12823,13 @@
         <v>0</v>
       </c>
       <c r="AR62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS62" s="0">
         <v>0</v>
       </c>
       <c r="AT62" s="0">
-        <v>0</v>
+        <v>0.56740576573327584</v>
       </c>
       <c r="AU62" s="0">
         <v>0</v>
@@ -12838,7 +12838,7 @@
         <v>0</v>
       </c>
       <c r="AW62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX62" s="0">
         <v>0</v>
@@ -12850,7 +12850,7 @@
         <v>0</v>
       </c>
       <c r="BA62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB62" s="0">
         <v>0</v>
@@ -12859,7 +12859,7 @@
         <v>0</v>
       </c>
       <c r="BD62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE62" s="0">
         <v>0</v>
@@ -12871,7 +12871,7 @@
         <v>0</v>
       </c>
       <c r="BH62" s="0">
-        <v>0</v>
+        <v>0.85357868949637949</v>
       </c>
       <c r="BI62" s="0">
         <v>0</v>
@@ -12883,7 +12883,7 @@
         <v>0</v>
       </c>
       <c r="BL62" s="0">
-        <v>0</v>
+        <v>0.99914791673159287</v>
       </c>
       <c r="BM62" s="0">
         <v>0</v>
@@ -12903,7 +12903,7 @@
         <v>0</v>
       </c>
       <c r="B63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C63" s="0">
         <v>0</v>
@@ -12912,13 +12912,13 @@
         <v>0</v>
       </c>
       <c r="E63" s="0">
-        <v>0</v>
+        <v>0.8588220281714215</v>
       </c>
       <c r="F63" s="0">
         <v>0</v>
       </c>
       <c r="G63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63" s="0">
         <v>0</v>
@@ -12942,7 +12942,7 @@
         <v>0</v>
       </c>
       <c r="O63" s="0">
-        <v>0</v>
+        <v>0.7441300258839163</v>
       </c>
       <c r="P63" s="0">
         <v>0</v>
@@ -13074,7 +13074,7 @@
         <v>0</v>
       </c>
       <c r="BG63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH63" s="0">
         <v>0</v>
@@ -13092,7 +13092,7 @@
         <v>0</v>
       </c>
       <c r="BM63" s="0">
-        <v>0</v>
+        <v>0.78150030160791883</v>
       </c>
       <c r="BN63" s="0">
         <v>0</v>
@@ -13118,10 +13118,10 @@
         <v>0</v>
       </c>
       <c r="E64" s="0">
-        <v>0</v>
+        <v>0.62571103840130859</v>
       </c>
       <c r="F64" s="0">
-        <v>0</v>
+        <v>0.51046214071747398</v>
       </c>
       <c r="G64" s="0">
         <v>0</v>
@@ -13142,7 +13142,7 @@
         <v>0</v>
       </c>
       <c r="M64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N64" s="0">
         <v>0</v>
@@ -13244,7 +13244,7 @@
         <v>0</v>
       </c>
       <c r="AU64" s="0">
-        <v>1</v>
+        <v>0.7822515976268023</v>
       </c>
       <c r="AV64" s="0">
         <v>0</v>
@@ -13265,7 +13265,7 @@
         <v>0</v>
       </c>
       <c r="BB64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC64" s="0">
         <v>0</v>
@@ -13286,10 +13286,10 @@
         <v>0</v>
       </c>
       <c r="BI64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ64" s="0">
-        <v>0</v>
+        <v>0.79179908817944811</v>
       </c>
       <c r="BK64" s="0">
         <v>0</v>
@@ -13315,7 +13315,7 @@
         <v>0</v>
       </c>
       <c r="B65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C65" s="0">
         <v>0</v>
@@ -13330,10 +13330,10 @@
         <v>0</v>
       </c>
       <c r="G65" s="0">
-        <v>0</v>
+        <v>0.7323500984127127</v>
       </c>
       <c r="H65" s="0">
-        <v>0</v>
+        <v>0.93288120786315054</v>
       </c>
       <c r="I65" s="0">
         <v>0</v>
@@ -13402,13 +13402,13 @@
         <v>0</v>
       </c>
       <c r="AE65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF65" s="0">
         <v>0</v>
       </c>
       <c r="AG65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH65" s="0">
         <v>0</v>
@@ -13456,7 +13456,7 @@
         <v>0</v>
       </c>
       <c r="AW65" s="0">
-        <v>0</v>
+        <v>0.81338429077017516</v>
       </c>
       <c r="AX65" s="0">
         <v>0</v>
@@ -13486,7 +13486,7 @@
         <v>0</v>
       </c>
       <c r="BG65" s="0">
-        <v>0</v>
+        <v>0.98670008466032011</v>
       </c>
       <c r="BH65" s="0">
         <v>0</v>
@@ -13498,7 +13498,7 @@
         <v>0</v>
       </c>
       <c r="BK65" s="0">
-        <v>0</v>
+        <v>0.95308687499101197</v>
       </c>
       <c r="BL65" s="0">
         <v>0</v>
@@ -13507,7 +13507,7 @@
         <v>0</v>
       </c>
       <c r="BN65" s="0">
-        <v>1</v>
+        <v>0.5012861633382153</v>
       </c>
       <c r="BO65" s="0">
         <v>0</v>
@@ -13524,7 +13524,7 @@
         <v>0</v>
       </c>
       <c r="C66" s="0">
-        <v>0</v>
+        <v>0.73786472592550978</v>
       </c>
       <c r="D66" s="0">
         <v>0</v>
@@ -13578,7 +13578,7 @@
         <v>0</v>
       </c>
       <c r="U66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V66" s="0">
         <v>0</v>
@@ -13674,7 +13674,7 @@
         <v>0</v>
       </c>
       <c r="BA66" s="0">
-        <v>0</v>
+        <v>0.61304710857809497</v>
       </c>
       <c r="BB66" s="0">
         <v>0</v>
@@ -13710,7 +13710,7 @@
         <v>0</v>
       </c>
       <c r="BM66" s="0">
-        <v>1</v>
+        <v>0.79774828956945409</v>
       </c>
       <c r="BN66" s="0">
         <v>0</v>
@@ -13719,12 +13719,12 @@
         <v>0</v>
       </c>
       <c r="BP66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>0</v>
+        <v>0.5944350604614077</v>
       </c>
       <c r="B67" s="0">
         <v>0</v>
@@ -13739,7 +13739,7 @@
         <v>0</v>
       </c>
       <c r="F67" s="0">
-        <v>0</v>
+        <v>0.70255727866360385</v>
       </c>
       <c r="G67" s="0">
         <v>0</v>
@@ -13790,7 +13790,7 @@
         <v>0</v>
       </c>
       <c r="W67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X67" s="0">
         <v>0</v>
@@ -13874,7 +13874,7 @@
         <v>0</v>
       </c>
       <c r="AY67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ67" s="0">
         <v>0</v>
@@ -13901,7 +13901,7 @@
         <v>0</v>
       </c>
       <c r="BH67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI67" s="0">
         <v>0</v>
@@ -13925,7 +13925,7 @@
         <v>0</v>
       </c>
       <c r="BP67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -13939,10 +13939,10 @@
         <v>0</v>
       </c>
       <c r="D68" s="0">
-        <v>0</v>
+        <v>0.73316117321656682</v>
       </c>
       <c r="E68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F68" s="0">
         <v>0</v>
@@ -13975,7 +13975,7 @@
         <v>0</v>
       </c>
       <c r="P68" s="0">
-        <v>1</v>
+        <v>0.81162623531102285</v>
       </c>
       <c r="Q68" s="0">
         <v>0</v>
@@ -13996,7 +13996,7 @@
         <v>0</v>
       </c>
       <c r="W68" s="0">
-        <v>0</v>
+        <v>0.91443981236203986</v>
       </c>
       <c r="X68" s="0">
         <v>0</v>
@@ -14041,7 +14041,7 @@
         <v>0</v>
       </c>
       <c r="AL68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM68" s="0">
         <v>0</v>
@@ -14086,13 +14086,13 @@
         <v>0</v>
       </c>
       <c r="BA68" s="0">
-        <v>0</v>
+        <v>0.92875202343494978</v>
       </c>
       <c r="BB68" s="0">
         <v>0</v>
       </c>
       <c r="BC68" s="0">
-        <v>0</v>
+        <v>0.65390530139141934</v>
       </c>
       <c r="BD68" s="0">
         <v>0</v>
@@ -14125,10 +14125,10 @@
         <v>0</v>
       </c>
       <c r="BN68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP68" s="0">
         <v>0</v>

--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject24.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject24.xlsx
@@ -185,7 +185,7 @@
         <v>0</v>
       </c>
       <c r="T1" s="0">
-        <v>0.58605103990277352</v>
+        <v>0.99869362007748852</v>
       </c>
       <c r="U1" s="0">
         <v>0</v>
@@ -224,7 +224,7 @@
         <v>0</v>
       </c>
       <c r="AG1" s="0">
-        <v>0.75618008426653804</v>
+        <v>0.77981146120731215</v>
       </c>
       <c r="AH1" s="0">
         <v>0</v>
@@ -245,7 +245,7 @@
         <v>0</v>
       </c>
       <c r="AN1" s="0">
-        <v>0.92717909018712064</v>
+        <v>0.93150182725711295</v>
       </c>
       <c r="AO1" s="0">
         <v>0</v>
@@ -514,7 +514,7 @@
         <v>0</v>
       </c>
       <c r="BI2" s="0">
-        <v>0.52194575170941859</v>
+        <v>0.62664343123870581</v>
       </c>
       <c r="BJ2" s="0">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="AK3" s="0">
-        <v>0.89567783912592769</v>
+        <v>0.98016668558573472</v>
       </c>
       <c r="AL3" s="0">
         <v>0</v>
@@ -735,7 +735,7 @@
         <v>0</v>
       </c>
       <c r="BN3" s="0">
-        <v>0.65531179903133607</v>
+        <v>0.73786472592550978</v>
       </c>
       <c r="BO3" s="0">
         <v>0</v>
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="0">
-        <v>0.90449718327628659</v>
+        <v>0.95039007782806939</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="O4" s="0">
-        <v>0.80483294438349728</v>
+        <v>0.92890721881526717</v>
       </c>
       <c r="P4" s="0">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="AN5" s="0">
-        <v>0.52547808187261613</v>
+        <v>0.94998839133393742</v>
       </c>
       <c r="AO5" s="0">
         <v>0</v>
@@ -1138,10 +1138,10 @@
         <v>0</v>
       </c>
       <c r="BK5" s="0">
-        <v>0.52978246223433123</v>
+        <v>0.8588220281714215</v>
       </c>
       <c r="BL5" s="0">
-        <v>0.60936144622214172</v>
+        <v>0.62571103840130859</v>
       </c>
       <c r="BM5" s="0">
         <v>0</v>
@@ -1170,7 +1170,7 @@
         <v>0.95039007782806939</v>
       </c>
       <c r="E6" s="0">
-        <v>0.55173756338515911</v>
+        <v>0.81575561939861851</v>
       </c>
       <c r="F6" s="0">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         <v>0</v>
       </c>
       <c r="BM8" s="0">
-        <v>0.72153107322635468</v>
+        <v>0.93288120786315054</v>
       </c>
       <c r="BN8" s="0">
         <v>0</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="B9" s="0">
-        <v>0.71189640907797691</v>
+        <v>0.72883842832974377</v>
       </c>
       <c r="C9" s="0">
         <v>0</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="0">
-        <v>0.84889194738151508</v>
+        <v>0.95663199835789992</v>
       </c>
       <c r="L9" s="0">
         <v>0</v>
@@ -2012,7 +2012,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="0">
-        <v>0.57000445265042532</v>
+        <v>0.74816072477451034</v>
       </c>
       <c r="L10" s="0">
         <v>0</v>
@@ -2054,7 +2054,7 @@
         <v>0</v>
       </c>
       <c r="Y10" s="0">
-        <v>0.52513255016118499</v>
+        <v>0.70216878518288683</v>
       </c>
       <c r="Z10" s="0">
         <v>0</v>
@@ -2111,7 +2111,7 @@
         <v>0.6401599341766071</v>
       </c>
       <c r="AR10" s="0">
-        <v>0.7760501797885353</v>
+        <v>0.92999353554773223</v>
       </c>
       <c r="AS10" s="0">
         <v>0</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="AW10" s="0">
-        <v>0.64241858132690099</v>
+        <v>0.78733227599403421</v>
       </c>
       <c r="AX10" s="0">
         <v>0</v>
@@ -2233,10 +2233,10 @@
         <v>0</v>
       </c>
       <c r="P11" s="0">
-        <v>0.74398517078205473</v>
+        <v>0.90414801123897792</v>
       </c>
       <c r="Q11" s="0">
-        <v>0.70086050576791736</v>
+        <v>0.75019741595623879</v>
       </c>
       <c r="R11" s="0">
         <v>0</v>
@@ -2353,7 +2353,7 @@
         <v>0</v>
       </c>
       <c r="BD11" s="0">
-        <v>0.85174748763901875</v>
+        <v>0.89599671328037456</v>
       </c>
       <c r="BE11" s="0">
         <v>0</v>
@@ -2433,7 +2433,7 @@
         <v>0</v>
       </c>
       <c r="N12" s="0">
-        <v>0.83991318660095038</v>
+        <v>0.88333120275532984</v>
       </c>
       <c r="O12" s="0">
         <v>0</v>
@@ -2463,7 +2463,7 @@
         <v>0</v>
       </c>
       <c r="X12" s="0">
-        <v>0.60091622979311698</v>
+        <v>0.81472839143972553</v>
       </c>
       <c r="Y12" s="0">
         <v>0</v>
@@ -2639,7 +2639,7 @@
         <v>0</v>
       </c>
       <c r="N13" s="0">
-        <v>0.73626921116363264</v>
+        <v>0.94404371163443268</v>
       </c>
       <c r="O13" s="0">
         <v>0</v>
@@ -2675,7 +2675,7 @@
         <v>0</v>
       </c>
       <c r="Z13" s="0">
-        <v>0.82970571058890963</v>
+        <v>0.85758688003321681</v>
       </c>
       <c r="AA13" s="0">
         <v>0</v>
@@ -2890,7 +2890,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="0">
-        <v>0.84480438167258887</v>
+        <v>0.98990153019225313</v>
       </c>
       <c r="AD14" s="0">
         <v>0</v>
@@ -2938,7 +2938,7 @@
         <v>0</v>
       </c>
       <c r="AS14" s="0">
-        <v>0.77110789984669581</v>
+        <v>0.83350285841163252</v>
       </c>
       <c r="AT14" s="0">
         <v>0</v>
@@ -3224,7 +3224,7 @@
         <v>0</v>
       </c>
       <c r="C16" s="0">
-        <v>0.54665334878498273</v>
+        <v>0.80605593920112573</v>
       </c>
       <c r="D16" s="0">
         <v>0</v>
@@ -3260,7 +3260,7 @@
         <v>0</v>
       </c>
       <c r="O16" s="0">
-        <v>0.55896334110002366</v>
+        <v>0.62307939286471226</v>
       </c>
       <c r="P16" s="0">
         <v>0</v>
@@ -3317,7 +3317,7 @@
         <v>0</v>
       </c>
       <c r="AH16" s="0">
-        <v>0.51135488536399953</v>
+        <v>0.89774102219073981</v>
       </c>
       <c r="AI16" s="0">
         <v>0</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="BE16" s="0">
-        <v>0.55158056976954861</v>
+        <v>0.8854236654860308</v>
       </c>
       <c r="BF16" s="0">
         <v>0</v>
@@ -3419,7 +3419,7 @@
         <v>0</v>
       </c>
       <c r="BP16" s="0">
-        <v>0.81025017628400375</v>
+        <v>0.81162623531102285</v>
       </c>
     </row>
     <row r="17">
@@ -3490,7 +3490,7 @@
         <v>0</v>
       </c>
       <c r="W17" s="0">
-        <v>0.61499734306208587</v>
+        <v>0.87141241412105952</v>
       </c>
       <c r="X17" s="0">
         <v>0</v>
@@ -3687,7 +3687,7 @@
         <v>0</v>
       </c>
       <c r="T18" s="0">
-        <v>0.51627494650833139</v>
+        <v>0.61229010834648001</v>
       </c>
       <c r="U18" s="0">
         <v>0</v>
@@ -3735,7 +3735,7 @@
         <v>0</v>
       </c>
       <c r="AJ18" s="0">
-        <v>0.85432714671085608</v>
+        <v>0.91139086023323568</v>
       </c>
       <c r="AK18" s="0">
         <v>0</v>
@@ -3884,7 +3884,7 @@
         <v>0</v>
       </c>
       <c r="Q19" s="0">
-        <v>0.79107854825816393</v>
+        <v>0.90730687479497751</v>
       </c>
       <c r="R19" s="0">
         <v>0</v>
@@ -3893,10 +3893,10 @@
         <v>0</v>
       </c>
       <c r="T19" s="0">
-        <v>0.64488496254622907</v>
+        <v>0.99512131896038403</v>
       </c>
       <c r="U19" s="0">
-        <v>0.78410111340337252</v>
+        <v>0.81854935398981898</v>
       </c>
       <c r="V19" s="0">
         <v>0</v>
@@ -3965,7 +3965,7 @@
         <v>0</v>
       </c>
       <c r="AR19" s="0">
-        <v>0.58326356072843011</v>
+        <v>0.61109199562700334</v>
       </c>
       <c r="AS19" s="0">
         <v>0</v>
@@ -3977,7 +3977,7 @@
         <v>0</v>
       </c>
       <c r="AV19" s="0">
-        <v>0.64158059384311983</v>
+        <v>0.67410244795930718</v>
       </c>
       <c r="AW19" s="0">
         <v>0</v>
@@ -4201,7 +4201,7 @@
         <v>0</v>
       </c>
       <c r="BB20" s="0">
-        <v>0.87943084953515016</v>
+        <v>0.91427612589555074</v>
       </c>
       <c r="BC20" s="0">
         <v>0</v>
@@ -4329,7 +4329,7 @@
         <v>0</v>
       </c>
       <c r="AB21" s="0">
-        <v>0.97427214320618905</v>
+        <v>0.98844187592679833</v>
       </c>
       <c r="AC21" s="0">
         <v>0</v>
@@ -4353,7 +4353,7 @@
         <v>0</v>
       </c>
       <c r="AJ21" s="0">
-        <v>0.60272096444169321</v>
+        <v>0.69233154821932796</v>
       </c>
       <c r="AK21" s="0">
         <v>0</v>
@@ -4496,7 +4496,7 @@
         <v>0</v>
       </c>
       <c r="O22" s="0">
-        <v>0.55627659110138183</v>
+        <v>0.60794571985909829</v>
       </c>
       <c r="P22" s="0">
         <v>0</v>
@@ -4532,7 +4532,7 @@
         <v>0</v>
       </c>
       <c r="AA22" s="0">
-        <v>0.71217436369883014</v>
+        <v>0.81675974679442986</v>
       </c>
       <c r="AB22" s="0">
         <v>0</v>
@@ -4556,7 +4556,7 @@
         <v>0</v>
       </c>
       <c r="AI22" s="0">
-        <v>0.84979472535768497</v>
+        <v>0.98869830784186163</v>
       </c>
       <c r="AJ22" s="0">
         <v>0</v>
@@ -4723,7 +4723,7 @@
         <v>0</v>
       </c>
       <c r="V23" s="0">
-        <v>0.61002165593631186</v>
+        <v>0.79330454251787308</v>
       </c>
       <c r="W23" s="0">
         <v>0</v>
@@ -4861,7 +4861,7 @@
         <v>0</v>
       </c>
       <c r="BP23" s="0">
-        <v>0.89721237633231499</v>
+        <v>0.91443981236203986</v>
       </c>
     </row>
     <row r="24">
@@ -4875,7 +4875,7 @@
         <v>0</v>
       </c>
       <c r="D24" s="0">
-        <v>0.7755618881997226</v>
+        <v>0.97973919275207499</v>
       </c>
       <c r="E24" s="0">
         <v>0</v>
@@ -5034,13 +5034,13 @@
         <v>0</v>
       </c>
       <c r="BE24" s="0">
-        <v>0.75041204753690161</v>
+        <v>0.97251528209599525</v>
       </c>
       <c r="BF24" s="0">
         <v>0</v>
       </c>
       <c r="BG24" s="0">
-        <v>0.57983697199655215</v>
+        <v>0.58710607765186218</v>
       </c>
       <c r="BH24" s="0">
         <v>0</v>
@@ -5123,7 +5123,7 @@
         <v>0</v>
       </c>
       <c r="R25" s="0">
-        <v>0.71752385970436616</v>
+        <v>0.83447362548418713</v>
       </c>
       <c r="S25" s="0">
         <v>0</v>
@@ -5356,7 +5356,7 @@
         <v>0</v>
       </c>
       <c r="AA26" s="0">
-        <v>0.52449478021065365</v>
+        <v>0.75947555550222967</v>
       </c>
       <c r="AB26" s="0">
         <v>0.92929929357605057</v>
@@ -5392,7 +5392,7 @@
         <v>0</v>
       </c>
       <c r="AM26" s="0">
-        <v>0.62588994357626748</v>
+        <v>0.79588381114698703</v>
       </c>
       <c r="AN26" s="0">
         <v>0</v>
@@ -5589,7 +5589,7 @@
         <v>0</v>
       </c>
       <c r="AJ27" s="0">
-        <v>0.58749441423780879</v>
+        <v>0.88615516104249537</v>
       </c>
       <c r="AK27" s="0">
         <v>0</v>
@@ -5765,7 +5765,7 @@
         <v>0</v>
       </c>
       <c r="Z28" s="0">
-        <v>0.84674793689128114</v>
+        <v>0.92929929357605057</v>
       </c>
       <c r="AA28" s="0">
         <v>0</v>
@@ -5855,7 +5855,7 @@
         <v>0</v>
       </c>
       <c r="BD28" s="0">
-        <v>0.7771585912952943</v>
+        <v>0.79087350698500147</v>
       </c>
       <c r="BE28" s="0">
         <v>0</v>
@@ -5920,7 +5920,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="0">
-        <v>0.73894809781495652</v>
+        <v>0.98424540265866645</v>
       </c>
       <c r="J29" s="0">
         <v>0</v>
@@ -5989,7 +5989,7 @@
         <v>0</v>
       </c>
       <c r="AF29" s="0">
-        <v>0.83426942600910192</v>
+        <v>0.89785474085875472</v>
       </c>
       <c r="AG29" s="0">
         <v>0</v>
@@ -6228,7 +6228,7 @@
         <v>0</v>
       </c>
       <c r="AQ30" s="0">
-        <v>0.52145958110265456</v>
+        <v>0.63560286805506694</v>
       </c>
       <c r="AR30" s="0">
         <v>0</v>
@@ -6389,7 +6389,7 @@
         <v>0</v>
       </c>
       <c r="AB31" s="0">
-        <v>0.84653071401250135</v>
+        <v>0.91249449191980814</v>
       </c>
       <c r="AC31" s="0">
         <v>0</v>
@@ -6440,7 +6440,7 @@
         <v>0</v>
       </c>
       <c r="AS31" s="0">
-        <v>0.6986321427134341</v>
+        <v>0.72614002866915439</v>
       </c>
       <c r="AT31" s="0">
         <v>0</v>
@@ -6535,7 +6535,7 @@
         <v>0</v>
       </c>
       <c r="H32" s="0">
-        <v>0.80806341304667684</v>
+        <v>0.84812734699671055</v>
       </c>
       <c r="I32" s="0">
         <v>0</v>
@@ -6625,7 +6625,7 @@
         <v>0</v>
       </c>
       <c r="AL32" s="0">
-        <v>0.75049577410789259</v>
+        <v>0.86605839272339968</v>
       </c>
       <c r="AM32" s="0">
         <v>0</v>
@@ -6810,7 +6810,7 @@
         <v>0</v>
       </c>
       <c r="AE33" s="0">
-        <v>0.82511375048581892</v>
+        <v>0.95122432773898891</v>
       </c>
       <c r="AF33" s="0">
         <v>0</v>
@@ -6837,7 +6837,7 @@
         <v>0</v>
       </c>
       <c r="AN33" s="0">
-        <v>0.5410871945750797</v>
+        <v>0.83516690096664337</v>
       </c>
       <c r="AO33" s="0">
         <v>0</v>
@@ -7135,7 +7135,7 @@
         <v>0</v>
       </c>
       <c r="B35" s="0">
-        <v>0.52151112331027316</v>
+        <v>0.89781908666433641</v>
       </c>
       <c r="C35" s="0">
         <v>0</v>
@@ -7231,7 +7231,7 @@
         <v>0</v>
       </c>
       <c r="AH35" s="0">
-        <v>0.53267524291246526</v>
+        <v>0.84324955055266981</v>
       </c>
       <c r="AI35" s="0">
         <v>0</v>
@@ -7249,7 +7249,7 @@
         <v>0</v>
       </c>
       <c r="AN35" s="0">
-        <v>0.57190329701040299</v>
+        <v>0.91181949466678347</v>
       </c>
       <c r="AO35" s="0">
         <v>0</v>
@@ -7279,7 +7279,7 @@
         <v>0</v>
       </c>
       <c r="AX35" s="0">
-        <v>0.54945288775279755</v>
+        <v>0.6014291781405936</v>
       </c>
       <c r="AY35" s="0">
         <v>0</v>
@@ -7425,10 +7425,10 @@
         <v>0</v>
       </c>
       <c r="AD36" s="0">
-        <v>0.55126658396141859</v>
+        <v>0.67549835441480144</v>
       </c>
       <c r="AE36" s="0">
-        <v>0.53622891487433511</v>
+        <v>0.81794177123639122</v>
       </c>
       <c r="AF36" s="0">
         <v>0</v>
@@ -7449,7 +7449,7 @@
         <v>0</v>
       </c>
       <c r="AL36" s="0">
-        <v>0.5464216340211534</v>
+        <v>0.69803996706879501</v>
       </c>
       <c r="AM36" s="0">
         <v>0</v>
@@ -7562,13 +7562,13 @@
         <v>0</v>
       </c>
       <c r="G37" s="0">
-        <v>0.60259438482819072</v>
+        <v>0.96768511323831108</v>
       </c>
       <c r="H37" s="0">
         <v>0</v>
       </c>
       <c r="I37" s="0">
-        <v>0.62026876177422496</v>
+        <v>0.92001805703117934</v>
       </c>
       <c r="J37" s="0">
         <v>0</v>
@@ -7697,7 +7697,7 @@
         <v>0</v>
       </c>
       <c r="AZ37" s="0">
-        <v>0.87711331596693554</v>
+        <v>0.95821136464703849</v>
       </c>
       <c r="BA37" s="0">
         <v>0</v>
@@ -7709,7 +7709,7 @@
         <v>0</v>
       </c>
       <c r="BD37" s="0">
-        <v>0.59497142513902057</v>
+        <v>0.79209202072541807</v>
       </c>
       <c r="BE37" s="0">
         <v>0</v>
@@ -7837,7 +7837,7 @@
         <v>0</v>
       </c>
       <c r="AD38" s="0">
-        <v>0.53040268402365709</v>
+        <v>0.85403232933752904</v>
       </c>
       <c r="AE38" s="0">
         <v>0</v>
@@ -7858,7 +7858,7 @@
         <v>0.69803996706879501</v>
       </c>
       <c r="AK38" s="0">
-        <v>0.51698946742185559</v>
+        <v>0.65866437802670974</v>
       </c>
       <c r="AL38" s="0">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="AO39" s="0">
-        <v>0.74375866245679201</v>
+        <v>0.93002842429591748</v>
       </c>
       <c r="AP39" s="0">
         <v>0</v>
@@ -8109,7 +8109,7 @@
         <v>0</v>
       </c>
       <c r="AZ39" s="0">
-        <v>0.60998746876260201</v>
+        <v>0.64070501939003377</v>
       </c>
       <c r="BA39" s="0">
         <v>0</v>
@@ -8243,7 +8243,7 @@
         <v>0</v>
       </c>
       <c r="AB40" s="0">
-        <v>0.83196406800559419</v>
+        <v>0.88399032378371223</v>
       </c>
       <c r="AC40" s="0">
         <v>0</v>
@@ -8273,7 +8273,7 @@
         <v>0</v>
       </c>
       <c r="AL40" s="0">
-        <v>0.7711608495975032</v>
+        <v>0.94711626225650236</v>
       </c>
       <c r="AM40" s="0">
         <v>0</v>
@@ -8676,7 +8676,7 @@
         <v>0</v>
       </c>
       <c r="AI42" s="0">
-        <v>0.58903506615440848</v>
+        <v>0.79013735957995723</v>
       </c>
       <c r="AJ42" s="0">
         <v>0</v>
@@ -8807,7 +8807,7 @@
         <v>0</v>
       </c>
       <c r="J43" s="0">
-        <v>0.58464523803568491</v>
+        <v>0.6401599341766071</v>
       </c>
       <c r="K43" s="0">
         <v>0</v>
@@ -8888,7 +8888,7 @@
         <v>0</v>
       </c>
       <c r="AK43" s="0">
-        <v>0.75604142039831757</v>
+        <v>0.94727587483511333</v>
       </c>
       <c r="AL43" s="0">
         <v>0</v>
@@ -9082,7 +9082,7 @@
         <v>0</v>
       </c>
       <c r="AG44" s="0">
-        <v>0.7615672979698529</v>
+        <v>0.97383374312249282</v>
       </c>
       <c r="AH44" s="0">
         <v>0</v>
@@ -9431,7 +9431,7 @@
         <v>0</v>
       </c>
       <c r="L46" s="0">
-        <v>0.70746887140276726</v>
+        <v>0.86236831054421681</v>
       </c>
       <c r="M46" s="0">
         <v>0</v>
@@ -9667,7 +9667,7 @@
         <v>0</v>
       </c>
       <c r="V47" s="0">
-        <v>0.67472664904265167</v>
+        <v>0.72840251991051708</v>
       </c>
       <c r="W47" s="0">
         <v>0</v>
@@ -9736,7 +9736,7 @@
         <v>0</v>
       </c>
       <c r="AS47" s="0">
-        <v>0.87557802788715855</v>
+        <v>0.89164552420792997</v>
       </c>
       <c r="AT47" s="0">
         <v>0</v>
@@ -9775,7 +9775,7 @@
         <v>0</v>
       </c>
       <c r="BF47" s="0">
-        <v>0.79506197271761347</v>
+        <v>0.91616520122545486</v>
       </c>
       <c r="BG47" s="0">
         <v>0</v>
@@ -9879,7 +9879,7 @@
         <v>0</v>
       </c>
       <c r="X48" s="0">
-        <v>0.83723835530089574</v>
+        <v>0.93088227900451281</v>
       </c>
       <c r="Y48" s="0">
         <v>0</v>
@@ -9945,7 +9945,7 @@
         <v>0</v>
       </c>
       <c r="AT48" s="0">
-        <v>0.62342340943421293</v>
+        <v>0.80923896155635955</v>
       </c>
       <c r="AU48" s="0">
         <v>0</v>
@@ -10124,7 +10124,7 @@
         <v>0</v>
       </c>
       <c r="AK49" s="0">
-        <v>0.66826115067590997</v>
+        <v>0.71035692903644221</v>
       </c>
       <c r="AL49" s="0">
         <v>0</v>
@@ -10208,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="BM49" s="0">
-        <v>0.77821807786408304</v>
+        <v>0.81338429077017516</v>
       </c>
       <c r="BN49" s="0">
         <v>0</v>
@@ -10366,7 +10366,7 @@
         <v>0</v>
       </c>
       <c r="AW50" s="0">
-        <v>0.61498385570473879</v>
+        <v>0.67820610169304119</v>
       </c>
       <c r="AX50" s="0">
         <v>0</v>
@@ -10494,7 +10494,7 @@
         <v>0</v>
       </c>
       <c r="W51" s="0">
-        <v>0.79554245168370485</v>
+        <v>0.85772698934845781</v>
       </c>
       <c r="X51" s="0">
         <v>0</v>
@@ -10599,7 +10599,7 @@
         <v>0</v>
       </c>
       <c r="BF51" s="0">
-        <v>0.54607723797610797</v>
+        <v>0.9520690451849485</v>
       </c>
       <c r="BG51" s="0">
         <v>0</v>
@@ -10655,7 +10655,7 @@
         <v>0</v>
       </c>
       <c r="H52" s="0">
-        <v>0.68948266149823956</v>
+        <v>0.76839543797397813</v>
       </c>
       <c r="I52" s="0">
         <v>0</v>
@@ -10691,7 +10691,7 @@
         <v>0</v>
       </c>
       <c r="T52" s="0">
-        <v>0.54037167939065256</v>
+        <v>0.59918107381604513</v>
       </c>
       <c r="U52" s="0">
         <v>0</v>
@@ -10724,7 +10724,7 @@
         <v>0</v>
       </c>
       <c r="AE52" s="0">
-        <v>0.85085505386839388</v>
+        <v>0.99232817858182831</v>
       </c>
       <c r="AF52" s="0">
         <v>0</v>
@@ -10781,7 +10781,7 @@
         <v>0</v>
       </c>
       <c r="AX52" s="0">
-        <v>0.55179275713853615</v>
+        <v>0.67082199545025589</v>
       </c>
       <c r="AY52" s="0">
         <v>0</v>
@@ -10915,7 +10915,7 @@
         <v>0</v>
       </c>
       <c r="Z53" s="0">
-        <v>0.55377812668299531</v>
+        <v>0.61147474877228292</v>
       </c>
       <c r="AA53" s="0">
         <v>0</v>
@@ -11035,7 +11035,7 @@
         <v>0</v>
       </c>
       <c r="BN53" s="0">
-        <v>0.59836260147436593</v>
+        <v>0.61304710857809497</v>
       </c>
       <c r="BO53" s="0">
         <v>0</v>
@@ -11124,7 +11124,7 @@
         <v>0</v>
       </c>
       <c r="AA54" s="0">
-        <v>0.5741478790454142</v>
+        <v>0.65197757607803519</v>
       </c>
       <c r="AB54" s="0">
         <v>0</v>
@@ -11202,7 +11202,7 @@
         <v>0</v>
       </c>
       <c r="BA54" s="0">
-        <v>0.63708751080893866</v>
+        <v>0.70253255448120799</v>
       </c>
       <c r="BB54" s="0">
         <v>0</v>
@@ -11217,7 +11217,7 @@
         <v>0</v>
       </c>
       <c r="BF54" s="0">
-        <v>0.67310421923580499</v>
+        <v>0.72255446803517387</v>
       </c>
       <c r="BG54" s="0">
         <v>0</v>
@@ -11620,7 +11620,7 @@
         <v>0</v>
       </c>
       <c r="BC56" s="0">
-        <v>0.59547356461100498</v>
+        <v>0.67990899838365593</v>
       </c>
       <c r="BD56" s="0">
         <v>0</v>
@@ -11838,7 +11838,7 @@
         <v>0</v>
       </c>
       <c r="BG57" s="0">
-        <v>0.79774147977022447</v>
+        <v>0.95750912366456453</v>
       </c>
       <c r="BH57" s="0">
         <v>0</v>
@@ -11909,7 +11909,7 @@
         <v>0</v>
       </c>
       <c r="N58" s="0">
-        <v>0.58940602711943746</v>
+        <v>0.70540086010488956</v>
       </c>
       <c r="O58" s="0">
         <v>0</v>
@@ -12178,7 +12178,7 @@
         <v>0</v>
       </c>
       <c r="AI59" s="0">
-        <v>0.53225223790476084</v>
+        <v>0.58736283627340546</v>
       </c>
       <c r="AJ59" s="0">
         <v>0</v>
@@ -12199,7 +12199,7 @@
         <v>0</v>
       </c>
       <c r="AP59" s="0">
-        <v>0.85386519628602486</v>
+        <v>0.94016640628479209</v>
       </c>
       <c r="AQ59" s="0">
         <v>0</v>
@@ -12268,7 +12268,7 @@
         <v>0</v>
       </c>
       <c r="BM59" s="0">
-        <v>0.91493661846143615</v>
+        <v>0.98670008466032011</v>
       </c>
       <c r="BN59" s="0">
         <v>0</v>
@@ -12327,10 +12327,10 @@
         <v>0</v>
       </c>
       <c r="P60" s="0">
-        <v>0.69415413541280402</v>
+        <v>0.90471576688424526</v>
       </c>
       <c r="Q60" s="0">
-        <v>0.84167855329438024</v>
+        <v>0.85873877032464241</v>
       </c>
       <c r="R60" s="0">
         <v>0</v>
@@ -12381,7 +12381,7 @@
         <v>0</v>
       </c>
       <c r="AH60" s="0">
-        <v>0.57578588128197361</v>
+        <v>0.97820461008365034</v>
       </c>
       <c r="AI60" s="0">
         <v>0</v>
@@ -12402,7 +12402,7 @@
         <v>0</v>
       </c>
       <c r="AO60" s="0">
-        <v>0.76492136694273438</v>
+        <v>0.99062033294133034</v>
       </c>
       <c r="AP60" s="0">
         <v>0</v>
@@ -12414,7 +12414,7 @@
         <v>0</v>
       </c>
       <c r="AS60" s="0">
-        <v>0.53177652758273408</v>
+        <v>0.95941178893828249</v>
       </c>
       <c r="AT60" s="0">
         <v>0</v>
@@ -12465,7 +12465,7 @@
         <v>0</v>
       </c>
       <c r="BJ60" s="0">
-        <v>0.52885361427531774</v>
+        <v>0.85357868949637949</v>
       </c>
       <c r="BK60" s="0">
         <v>0</v>
@@ -12581,7 +12581,7 @@
         <v>0</v>
       </c>
       <c r="AF61" s="0">
-        <v>0.77399822979079791</v>
+        <v>0.80808182861523126</v>
       </c>
       <c r="AG61" s="0">
         <v>0</v>
@@ -12596,7 +12596,7 @@
         <v>0</v>
       </c>
       <c r="AK61" s="0">
-        <v>0.64003051220630702</v>
+        <v>0.65387964140097532</v>
       </c>
       <c r="AL61" s="0">
         <v>0</v>
@@ -12814,7 +12814,7 @@
         <v>0</v>
       </c>
       <c r="AO62" s="0">
-        <v>0.9431895787802298</v>
+        <v>0.95980197421552438</v>
       </c>
       <c r="AP62" s="0">
         <v>0</v>
@@ -12829,7 +12829,7 @@
         <v>0</v>
       </c>
       <c r="AT62" s="0">
-        <v>0.56740576573327584</v>
+        <v>0.65108326979826869</v>
       </c>
       <c r="AU62" s="0">
         <v>0</v>
@@ -12942,7 +12942,7 @@
         <v>0</v>
       </c>
       <c r="O63" s="0">
-        <v>0.7441300258839163</v>
+        <v>0.80519427170120861</v>
       </c>
       <c r="P63" s="0">
         <v>0</v>
@@ -13092,7 +13092,7 @@
         <v>0</v>
       </c>
       <c r="BM63" s="0">
-        <v>0.78150030160791883</v>
+        <v>0.95308687499101197</v>
       </c>
       <c r="BN63" s="0">
         <v>0</v>
@@ -13121,7 +13121,7 @@
         <v>0.62571103840130859</v>
       </c>
       <c r="F64" s="0">
-        <v>0.51046214071747398</v>
+        <v>0.90667984740426766</v>
       </c>
       <c r="G64" s="0">
         <v>0</v>
@@ -13244,7 +13244,7 @@
         <v>0</v>
       </c>
       <c r="AU64" s="0">
-        <v>0.7822515976268023</v>
+        <v>0.90860457997812061</v>
       </c>
       <c r="AV64" s="0">
         <v>0</v>
@@ -13289,7 +13289,7 @@
         <v>0</v>
       </c>
       <c r="BJ64" s="0">
-        <v>0.79179908817944811</v>
+        <v>0.99914791673159287</v>
       </c>
       <c r="BK64" s="0">
         <v>0</v>
@@ -13330,7 +13330,7 @@
         <v>0</v>
       </c>
       <c r="G65" s="0">
-        <v>0.7323500984127127</v>
+        <v>0.74959468578898558</v>
       </c>
       <c r="H65" s="0">
         <v>0.93288120786315054</v>
@@ -13507,7 +13507,7 @@
         <v>0</v>
       </c>
       <c r="BN65" s="0">
-        <v>0.5012861633382153</v>
+        <v>0.79774828956945409</v>
       </c>
       <c r="BO65" s="0">
         <v>0</v>
@@ -13724,7 +13724,7 @@
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>0.5944350604614077</v>
+        <v>0.84781125519940559</v>
       </c>
       <c r="B67" s="0">
         <v>0</v>
@@ -13739,7 +13739,7 @@
         <v>0</v>
       </c>
       <c r="F67" s="0">
-        <v>0.70255727866360385</v>
+        <v>0.92165483125620118</v>
       </c>
       <c r="G67" s="0">
         <v>0</v>
@@ -13939,7 +13939,7 @@
         <v>0</v>
       </c>
       <c r="D68" s="0">
-        <v>0.73316117321656682</v>
+        <v>0.8935977463630671</v>
       </c>
       <c r="E68" s="0">
         <v>0</v>
@@ -14086,13 +14086,13 @@
         <v>0</v>
       </c>
       <c r="BA68" s="0">
-        <v>0.92875202343494978</v>
+        <v>0.993487217442107</v>
       </c>
       <c r="BB68" s="0">
         <v>0</v>
       </c>
       <c r="BC68" s="0">
-        <v>0.65390530139141934</v>
+        <v>0.73255708316696877</v>
       </c>
       <c r="BD68" s="0">
         <v>0</v>
